--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44468</v>
+        <v>44489</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L3" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M3" t="n">
-        <v>1920</v>
+        <v>1450</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,12 +595,84 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1920</v>
+        <v>1450</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Verde</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>500</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1920</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>1920</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44477</v>
+        <v>44496</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>1460</v>
+        <v>1773</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1460</v>
+        <v>1773</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44489</v>
+        <v>44477</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
         <v>1400</v>
@@ -582,7 +582,7 @@
         <v>1500</v>
       </c>
       <c r="M3" t="n">
-        <v>1450</v>
+        <v>1460</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1450</v>
+        <v>1460</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44468</v>
+        <v>44489</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M4" t="n">
-        <v>1920</v>
+        <v>1450</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,12 +667,84 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1920</v>
+        <v>1450</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
       </c>
       <c r="R4" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Verde</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>500</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1920</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>1920</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44496</v>
+        <v>44489</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L2" t="n">
         <v>1500</v>
       </c>
-      <c r="L2" t="n">
-        <v>2000</v>
-      </c>
       <c r="M2" t="n">
-        <v>1773</v>
+        <v>1450</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1773</v>
+        <v>1450</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44477</v>
+        <v>44468</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,13 +576,13 @@
         <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>1460</v>
+        <v>1920</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1460</v>
+        <v>1920</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K4" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1450</v>
+        <v>1773</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1450</v>
+        <v>1773</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44468</v>
+        <v>44477</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -720,13 +720,13 @@
         <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1920</v>
+        <v>1460</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1920</v>
+        <v>1460</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44477</v>
+        <v>44510</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L5" t="n">
         <v>1400</v>
       </c>
-      <c r="L5" t="n">
-        <v>1500</v>
-      </c>
       <c r="M5" t="n">
-        <v>1460</v>
+        <v>1350</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,12 +739,84 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1460</v>
+        <v>1350</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>44477</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>500</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1460</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>1460</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,6 +822,78 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>600</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1400</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1350</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44489</v>
+        <v>44511</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -504,13 +504,13 @@
         <v>600</v>
       </c>
       <c r="K2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L2" t="n">
         <v>1400</v>
       </c>
-      <c r="L2" t="n">
-        <v>1500</v>
-      </c>
       <c r="M2" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44468</v>
+        <v>44489</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L3" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M3" t="n">
-        <v>1920</v>
+        <v>1450</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1920</v>
+        <v>1450</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44510</v>
+        <v>44477</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L5" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1350</v>
+        <v>1460</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1350</v>
+        <v>1460</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44477</v>
+        <v>44510</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L6" t="n">
         <v>1400</v>
       </c>
-      <c r="L6" t="n">
-        <v>1500</v>
-      </c>
       <c r="M6" t="n">
-        <v>1460</v>
+        <v>1350</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1460</v>
+        <v>1350</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44511</v>
+        <v>44468</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L7" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>1350</v>
+        <v>1920</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1350</v>
+        <v>1920</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44489</v>
+        <v>44519</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M3" t="n">
-        <v>1450</v>
+        <v>1240</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1450</v>
+        <v>1240</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44496</v>
+        <v>44489</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L4" t="n">
         <v>1500</v>
       </c>
-      <c r="L4" t="n">
-        <v>2000</v>
-      </c>
       <c r="M4" t="n">
-        <v>1773</v>
+        <v>1450</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1773</v>
+        <v>1450</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44477</v>
+        <v>44496</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K5" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>1460</v>
+        <v>1773</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1460</v>
+        <v>1773</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44510</v>
+        <v>44477</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L6" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M6" t="n">
-        <v>1350</v>
+        <v>1460</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1350</v>
+        <v>1460</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K7" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M7" t="n">
-        <v>1920</v>
+        <v>1350</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,12 +883,84 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1920</v>
+        <v>1350</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Verde</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>500</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1920</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>1920</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44510</v>
+        <v>44524</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M7" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="L8" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M8" t="n">
-        <v>1920</v>
+        <v>1350</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,12 +955,84 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1920</v>
+        <v>1350</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
       </c>
       <c r="R8" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Verde</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>500</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1920</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>1920</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M3" t="n">
-        <v>1240</v>
+        <v>1550</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1240</v>
+        <v>1550</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44489</v>
+        <v>44519</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M4" t="n">
-        <v>1450</v>
+        <v>1240</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1450</v>
+        <v>1240</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44496</v>
+        <v>44489</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L5" t="n">
         <v>1500</v>
       </c>
-      <c r="L5" t="n">
-        <v>2000</v>
-      </c>
       <c r="M5" t="n">
-        <v>1773</v>
+        <v>1450</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1773</v>
+        <v>1450</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44477</v>
+        <v>44496</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K6" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>1460</v>
+        <v>1773</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1460</v>
+        <v>1773</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44524</v>
+        <v>44477</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L7" t="n">
         <v>1500</v>
       </c>
-      <c r="L7" t="n">
-        <v>1600</v>
-      </c>
       <c r="M7" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44510</v>
+        <v>44524</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M8" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K9" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="L9" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M9" t="n">
-        <v>1920</v>
+        <v>1350</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,12 +1027,84 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1920</v>
+        <v>1350</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Verde</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>500</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1920</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>1920</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44511</v>
+        <v>44526</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M2" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44526</v>
+        <v>44468</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L3" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44519</v>
+        <v>44524</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M4" t="n">
-        <v>1240</v>
+        <v>1550</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1240</v>
+        <v>1550</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44489</v>
+        <v>44511</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -720,13 +720,13 @@
         <v>600</v>
       </c>
       <c r="K5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L5" t="n">
         <v>1400</v>
       </c>
-      <c r="L5" t="n">
-        <v>1500</v>
-      </c>
       <c r="M5" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44496</v>
+        <v>44477</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L6" t="n">
         <v>1500</v>
       </c>
-      <c r="L6" t="n">
-        <v>2000</v>
-      </c>
       <c r="M6" t="n">
-        <v>1773</v>
+        <v>1460</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1773</v>
+        <v>1460</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44477</v>
+        <v>44510</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K7" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L7" t="n">
         <v>1400</v>
       </c>
-      <c r="L7" t="n">
-        <v>1500</v>
-      </c>
       <c r="M7" t="n">
-        <v>1460</v>
+        <v>1350</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1460</v>
+        <v>1350</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44524</v>
+        <v>44496</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,29 +933,29 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="K8" t="n">
         <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="n">
-        <v>1550</v>
+        <v>1773</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1550</v>
+        <v>1773</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44510</v>
+        <v>44519</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K9" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L9" t="n">
         <v>1300</v>
       </c>
-      <c r="L9" t="n">
-        <v>1400</v>
-      </c>
       <c r="M9" t="n">
-        <v>1350</v>
+        <v>1240</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1350</v>
+        <v>1240</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44468</v>
+        <v>44489</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K10" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L10" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>1920</v>
+        <v>1450</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1920</v>
+        <v>1450</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44526</v>
+        <v>44496</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
         <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>1550</v>
+        <v>1773</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1550</v>
+        <v>1773</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44468</v>
+        <v>44524</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M3" t="n">
-        <v>1920</v>
+        <v>1550</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1920</v>
+        <v>1550</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44524</v>
+        <v>44477</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L4" t="n">
         <v>1500</v>
       </c>
-      <c r="L4" t="n">
-        <v>1600</v>
-      </c>
       <c r="M4" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44511</v>
+        <v>44468</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L5" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>1350</v>
+        <v>1920</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1350</v>
+        <v>1920</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44477</v>
+        <v>44489</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K6" t="n">
         <v>1400</v>
@@ -798,7 +798,7 @@
         <v>1500</v>
       </c>
       <c r="M6" t="n">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44510</v>
+        <v>44526</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M7" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44496</v>
+        <v>44510</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L8" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M8" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44489</v>
+        <v>44511</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1080,13 +1080,13 @@
         <v>600</v>
       </c>
       <c r="K10" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L10" t="n">
         <v>1400</v>
       </c>
-      <c r="L10" t="n">
-        <v>1500</v>
-      </c>
       <c r="M10" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44496</v>
+        <v>44545</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -504,17 +504,17 @@
         <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M2" t="n">
-        <v>1773</v>
+        <v>1755</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1773</v>
+        <v>1755</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44524</v>
+        <v>44496</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,29 +573,29 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="K3" t="n">
         <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>1550</v>
+        <v>1773</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1550</v>
+        <v>1773</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44477</v>
+        <v>44524</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M4" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44468</v>
+        <v>44477</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -720,13 +720,13 @@
         <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1920</v>
+        <v>1460</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1920</v>
+        <v>1460</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44489</v>
+        <v>44468</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>1450</v>
+        <v>1920</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1450</v>
+        <v>1920</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44526</v>
+        <v>44489</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K7" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L7" t="n">
         <v>1500</v>
       </c>
-      <c r="L7" t="n">
-        <v>1600</v>
-      </c>
       <c r="M7" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44510</v>
+        <v>44526</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M8" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44519</v>
+        <v>44510</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K9" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="L9" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M9" t="n">
-        <v>1240</v>
+        <v>1350</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1240</v>
+        <v>1350</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44511</v>
+        <v>44519</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L10" t="n">
         <v>1300</v>
       </c>
-      <c r="L10" t="n">
-        <v>1400</v>
-      </c>
       <c r="M10" t="n">
-        <v>1350</v>
+        <v>1240</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,12 +1099,84 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1350</v>
+        <v>1240</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>600</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1400</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1350</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44545</v>
+        <v>44468</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L2" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>1755</v>
+        <v>1920</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1755</v>
+        <v>1920</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44496</v>
+        <v>44519</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L3" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M3" t="n">
-        <v>1773</v>
+        <v>1240</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1773</v>
+        <v>1240</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44477</v>
+        <v>44510</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L5" t="n">
         <v>1400</v>
       </c>
-      <c r="L5" t="n">
-        <v>1500</v>
-      </c>
       <c r="M5" t="n">
-        <v>1460</v>
+        <v>1350</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1460</v>
+        <v>1350</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44468</v>
+        <v>44477</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -792,13 +792,13 @@
         <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L6" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M6" t="n">
-        <v>1920</v>
+        <v>1460</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1920</v>
+        <v>1460</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44489</v>
+        <v>44526</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M7" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44526</v>
+        <v>44489</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L8" t="n">
         <v>1500</v>
       </c>
-      <c r="L8" t="n">
-        <v>1600</v>
-      </c>
       <c r="M8" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44510</v>
+        <v>44496</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K9" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L9" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44519</v>
+        <v>44545</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K10" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="L10" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="M10" t="n">
-        <v>1240</v>
+        <v>1755</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1240</v>
+        <v>1755</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44468</v>
+        <v>44477</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -504,13 +504,13 @@
         <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>1920</v>
+        <v>1460</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1920</v>
+        <v>1460</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44519</v>
+        <v>44524</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M3" t="n">
-        <v>1240</v>
+        <v>1550</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1240</v>
+        <v>1550</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44524</v>
+        <v>44510</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L4" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M4" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44477</v>
+        <v>44519</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K6" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M6" t="n">
-        <v>1460</v>
+        <v>1240</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1460</v>
+        <v>1240</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44526</v>
+        <v>44545</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K7" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L7" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M7" t="n">
-        <v>1550</v>
+        <v>1755</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1550</v>
+        <v>1755</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44489</v>
+        <v>44526</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M8" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44496</v>
+        <v>44489</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K9" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L9" t="n">
         <v>1500</v>
       </c>
-      <c r="L9" t="n">
-        <v>2000</v>
-      </c>
       <c r="M9" t="n">
-        <v>1773</v>
+        <v>1450</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1773</v>
+        <v>1450</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44545</v>
+        <v>44496</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1080,17 +1080,17 @@
         <v>550</v>
       </c>
       <c r="K10" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="n">
-        <v>1755</v>
+        <v>1773</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1755</v>
+        <v>1773</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44511</v>
+        <v>44468</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L11" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="n">
-        <v>1350</v>
+        <v>1920</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1350</v>
+        <v>1920</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44524</v>
+        <v>44468</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L3" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44510</v>
+        <v>44496</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K4" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44511</v>
+        <v>44545</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="L5" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="M5" t="n">
-        <v>1350</v>
+        <v>1755</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1350</v>
+        <v>1755</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44545</v>
+        <v>44526</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M7" t="n">
-        <v>1755</v>
+        <v>1550</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1755</v>
+        <v>1550</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44526</v>
+        <v>44510</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L8" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M8" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44489</v>
+        <v>44511</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1008,13 +1008,13 @@
         <v>600</v>
       </c>
       <c r="K9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L9" t="n">
         <v>1400</v>
       </c>
-      <c r="L9" t="n">
-        <v>1500</v>
-      </c>
       <c r="M9" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44496</v>
+        <v>44524</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,29 +1077,29 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
         <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M10" t="n">
-        <v>1773</v>
+        <v>1550</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1773</v>
+        <v>1550</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44468</v>
+        <v>44489</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K11" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L11" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M11" t="n">
-        <v>1920</v>
+        <v>1450</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1920</v>
+        <v>1450</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44477</v>
+        <v>44489</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K2" t="n">
         <v>1400</v>
@@ -510,7 +510,7 @@
         <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44496</v>
+        <v>44545</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -648,17 +648,17 @@
         <v>550</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M4" t="n">
-        <v>1773</v>
+        <v>1755</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1773</v>
+        <v>1755</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44545</v>
+        <v>44511</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="L5" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="M5" t="n">
-        <v>1755</v>
+        <v>1350</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1755</v>
+        <v>1350</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44519</v>
+        <v>44510</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K6" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="L6" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M6" t="n">
-        <v>1240</v>
+        <v>1350</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1240</v>
+        <v>1350</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44526</v>
+        <v>44524</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
         <v>1500</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44510</v>
+        <v>44519</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L8" t="n">
         <v>1300</v>
       </c>
-      <c r="L8" t="n">
-        <v>1400</v>
-      </c>
       <c r="M8" t="n">
-        <v>1350</v>
+        <v>1240</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1350</v>
+        <v>1240</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44511</v>
+        <v>44477</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L9" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M9" t="n">
-        <v>1350</v>
+        <v>1460</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1350</v>
+        <v>1460</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44524</v>
+        <v>44526</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
         <v>1500</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K11" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L11" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="n">
-        <v>1450</v>
+        <v>1773</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1450</v>
+        <v>1773</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44468</v>
+        <v>44496</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,20 +573,20 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K3" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
         <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>1920</v>
+        <v>1773</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1920</v>
+        <v>1773</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44545</v>
+        <v>44510</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="L4" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="M4" t="n">
-        <v>1755</v>
+        <v>1350</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1755</v>
+        <v>1350</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44511</v>
+        <v>44526</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L5" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M5" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44510</v>
+        <v>44545</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K6" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="L6" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="M6" t="n">
-        <v>1350</v>
+        <v>1755</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1350</v>
+        <v>1755</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44524</v>
+        <v>44477</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L7" t="n">
         <v>1500</v>
       </c>
-      <c r="L7" t="n">
-        <v>1600</v>
-      </c>
       <c r="M7" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44477</v>
+        <v>44468</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1008,13 +1008,13 @@
         <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L9" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="n">
-        <v>1460</v>
+        <v>1920</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1460</v>
+        <v>1920</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44526</v>
+        <v>44511</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K10" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L10" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M10" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44496</v>
+        <v>44524</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,29 +1149,29 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
         <v>1500</v>
       </c>
       <c r="L11" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M11" t="n">
-        <v>1773</v>
+        <v>1550</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1773</v>
+        <v>1550</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44489</v>
+        <v>44477</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
         <v>1400</v>
@@ -510,7 +510,7 @@
         <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>1450</v>
+        <v>1460</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1450</v>
+        <v>1460</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44496</v>
+        <v>44524</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,29 +573,29 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
         <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M3" t="n">
-        <v>1773</v>
+        <v>1550</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1773</v>
+        <v>1550</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44510</v>
+        <v>44526</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M4" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44526</v>
+        <v>44468</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L5" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44545</v>
+        <v>44519</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K6" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="L6" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="M6" t="n">
-        <v>1755</v>
+        <v>1240</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1755</v>
+        <v>1240</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44477</v>
+        <v>44496</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K7" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>1460</v>
+        <v>1773</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1460</v>
+        <v>1773</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44519</v>
+        <v>44511</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="L8" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M8" t="n">
-        <v>1240</v>
+        <v>1350</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1240</v>
+        <v>1350</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44468</v>
+        <v>44545</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K9" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L9" t="n">
         <v>1800</v>
       </c>
-      <c r="L9" t="n">
-        <v>2000</v>
-      </c>
       <c r="M9" t="n">
-        <v>1920</v>
+        <v>1755</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1920</v>
+        <v>1755</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44511</v>
+        <v>44489</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1080,13 +1080,13 @@
         <v>600</v>
       </c>
       <c r="K10" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L10" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44524</v>
+        <v>44510</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K11" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L11" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M11" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44477</v>
+        <v>44519</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M2" t="n">
-        <v>1460</v>
+        <v>1240</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1460</v>
+        <v>1240</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44524</v>
+        <v>44468</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L3" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44526</v>
+        <v>44545</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L4" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M4" t="n">
-        <v>1550</v>
+        <v>1755</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1550</v>
+        <v>1755</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44468</v>
+        <v>44526</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M5" t="n">
-        <v>1920</v>
+        <v>1550</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1920</v>
+        <v>1550</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44519</v>
+        <v>44510</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K6" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="L6" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M6" t="n">
-        <v>1240</v>
+        <v>1350</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1240</v>
+        <v>1350</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44496</v>
+        <v>44477</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L7" t="n">
         <v>1500</v>
       </c>
-      <c r="L7" t="n">
-        <v>2000</v>
-      </c>
       <c r="M7" t="n">
-        <v>1773</v>
+        <v>1460</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1773</v>
+        <v>1460</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44511</v>
+        <v>44524</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M8" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44545</v>
+        <v>44511</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K9" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="L9" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="M9" t="n">
-        <v>1755</v>
+        <v>1350</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1755</v>
+        <v>1350</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K10" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="n">
-        <v>1450</v>
+        <v>1773</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1450</v>
+        <v>1773</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44510</v>
+        <v>44489</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1152,13 +1152,13 @@
         <v>600</v>
       </c>
       <c r="K11" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L11" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M11" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44519</v>
+        <v>44511</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K2" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="L2" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M2" t="n">
-        <v>1240</v>
+        <v>1350</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1240</v>
+        <v>1350</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="L3" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M3" t="n">
-        <v>1920</v>
+        <v>1350</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1920</v>
+        <v>1350</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44545</v>
+        <v>44496</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -648,17 +648,17 @@
         <v>550</v>
       </c>
       <c r="K4" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1755</v>
+        <v>1773</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1755</v>
+        <v>1773</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44526</v>
+        <v>44489</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L5" t="n">
         <v>1500</v>
       </c>
-      <c r="L5" t="n">
-        <v>1600</v>
-      </c>
       <c r="M5" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44510</v>
+        <v>44524</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L6" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M6" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44477</v>
+        <v>44526</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M7" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44524</v>
+        <v>44545</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="K8" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L8" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M8" t="n">
-        <v>1550</v>
+        <v>1755</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1550</v>
+        <v>1755</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44511</v>
+        <v>44468</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L9" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="n">
-        <v>1350</v>
+        <v>1920</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1350</v>
+        <v>1920</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44496</v>
+        <v>44519</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K10" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L10" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M10" t="n">
-        <v>1773</v>
+        <v>1240</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1773</v>
+        <v>1240</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44489</v>
+        <v>44477</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
         <v>1400</v>
@@ -1158,7 +1158,7 @@
         <v>1500</v>
       </c>
       <c r="M11" t="n">
-        <v>1450</v>
+        <v>1460</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1450</v>
+        <v>1460</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44511</v>
+        <v>44489</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -504,13 +504,13 @@
         <v>600</v>
       </c>
       <c r="K2" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L2" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44510</v>
+        <v>44519</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L3" t="n">
         <v>1300</v>
       </c>
-      <c r="L3" t="n">
-        <v>1400</v>
-      </c>
       <c r="M3" t="n">
-        <v>1350</v>
+        <v>1240</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1350</v>
+        <v>1240</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44496</v>
+        <v>44511</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M4" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44489</v>
+        <v>44510</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -720,13 +720,13 @@
         <v>600</v>
       </c>
       <c r="K5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L5" t="n">
         <v>1400</v>
       </c>
-      <c r="L5" t="n">
-        <v>1500</v>
-      </c>
       <c r="M5" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44524</v>
+        <v>44468</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L6" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44526</v>
+        <v>44524</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
         <v>1500</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44468</v>
+        <v>44477</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1008,13 +1008,13 @@
         <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L9" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M9" t="n">
-        <v>1920</v>
+        <v>1460</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1920</v>
+        <v>1460</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44519</v>
+        <v>44496</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K10" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="n">
-        <v>1240</v>
+        <v>1773</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1240</v>
+        <v>1773</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44477</v>
+        <v>44526</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L11" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M11" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44489</v>
+        <v>44477</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
         <v>1400</v>
@@ -510,7 +510,7 @@
         <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>1450</v>
+        <v>1460</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1450</v>
+        <v>1460</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44519</v>
+        <v>44489</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L3" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M3" t="n">
-        <v>1240</v>
+        <v>1450</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1240</v>
+        <v>1450</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44511</v>
+        <v>44510</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44468</v>
+        <v>44545</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K6" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L6" t="n">
         <v>1800</v>
       </c>
-      <c r="L6" t="n">
-        <v>2000</v>
-      </c>
       <c r="M6" t="n">
-        <v>1920</v>
+        <v>1755</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1920</v>
+        <v>1755</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44524</v>
+        <v>44519</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K7" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L7" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M7" t="n">
-        <v>1550</v>
+        <v>1240</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1550</v>
+        <v>1240</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44545</v>
+        <v>44524</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M8" t="n">
-        <v>1755</v>
+        <v>1550</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1755</v>
+        <v>1550</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44477</v>
+        <v>44526</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L9" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M9" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44496</v>
+        <v>44468</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L10" t="n">
         <v>2000</v>
       </c>
       <c r="M10" t="n">
-        <v>1773</v>
+        <v>1920</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1773</v>
+        <v>1920</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44526</v>
+        <v>44496</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K11" t="n">
         <v>1500</v>
       </c>
       <c r="L11" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="n">
-        <v>1550</v>
+        <v>1773</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1550</v>
+        <v>1773</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44477</v>
+        <v>44489</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K2" t="n">
         <v>1400</v>
@@ -510,7 +510,7 @@
         <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44489</v>
+        <v>44510</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -576,13 +576,13 @@
         <v>600</v>
       </c>
       <c r="K3" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L3" t="n">
         <v>1400</v>
       </c>
-      <c r="L3" t="n">
-        <v>1500</v>
-      </c>
       <c r="M3" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44511</v>
+        <v>44468</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L5" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>1350</v>
+        <v>1920</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1350</v>
+        <v>1920</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44545</v>
+        <v>44496</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -792,17 +792,17 @@
         <v>550</v>
       </c>
       <c r="K6" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L6" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>1755</v>
+        <v>1773</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1755</v>
+        <v>1773</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M7" t="n">
-        <v>1240</v>
+        <v>1550</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1240</v>
+        <v>1550</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44524</v>
+        <v>44545</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="K8" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L8" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M8" t="n">
-        <v>1550</v>
+        <v>1755</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1550</v>
+        <v>1755</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44526</v>
+        <v>44477</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L9" t="n">
         <v>1500</v>
       </c>
-      <c r="L9" t="n">
-        <v>1600</v>
-      </c>
       <c r="M9" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44468</v>
+        <v>44524</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M10" t="n">
-        <v>1920</v>
+        <v>1550</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1920</v>
+        <v>1550</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44496</v>
+        <v>44519</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K11" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L11" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M11" t="n">
-        <v>1773</v>
+        <v>1240</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1773</v>
+        <v>1240</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44489</v>
+        <v>44468</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>1450</v>
+        <v>1920</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1450</v>
+        <v>1920</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44510</v>
+        <v>44524</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M3" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44511</v>
+        <v>44519</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L4" t="n">
         <v>1300</v>
       </c>
-      <c r="L4" t="n">
-        <v>1400</v>
-      </c>
       <c r="M4" t="n">
-        <v>1350</v>
+        <v>1240</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1350</v>
+        <v>1240</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44468</v>
+        <v>44477</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -720,13 +720,13 @@
         <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1920</v>
+        <v>1460</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1920</v>
+        <v>1460</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44526</v>
+        <v>44510</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K7" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L7" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M7" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44545</v>
+        <v>44526</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M8" t="n">
-        <v>1755</v>
+        <v>1550</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1755</v>
+        <v>1550</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44477</v>
+        <v>44511</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L9" t="n">
         <v>1400</v>
       </c>
-      <c r="L9" t="n">
-        <v>1500</v>
-      </c>
       <c r="M9" t="n">
-        <v>1460</v>
+        <v>1350</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1460</v>
+        <v>1350</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44524</v>
+        <v>44545</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="K10" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L10" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M10" t="n">
-        <v>1550</v>
+        <v>1755</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1550</v>
+        <v>1755</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44519</v>
+        <v>44489</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K11" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L11" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M11" t="n">
-        <v>1240</v>
+        <v>1450</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1240</v>
+        <v>1450</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44468</v>
+        <v>44545</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L2" t="n">
         <v>1800</v>
       </c>
-      <c r="L2" t="n">
-        <v>2000</v>
-      </c>
       <c r="M2" t="n">
-        <v>1920</v>
+        <v>1755</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1920</v>
+        <v>1755</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44524</v>
+        <v>44477</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L3" t="n">
         <v>1500</v>
       </c>
-      <c r="L3" t="n">
-        <v>1600</v>
-      </c>
       <c r="M3" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M4" t="n">
-        <v>1240</v>
+        <v>1550</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1240</v>
+        <v>1550</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44477</v>
+        <v>44510</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L5" t="n">
         <v>1400</v>
       </c>
-      <c r="L5" t="n">
-        <v>1500</v>
-      </c>
       <c r="M5" t="n">
-        <v>1460</v>
+        <v>1350</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1460</v>
+        <v>1350</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44496</v>
+        <v>44468</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L6" t="n">
         <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>1773</v>
+        <v>1920</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1773</v>
+        <v>1920</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44510</v>
+        <v>44524</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M7" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44526</v>
+        <v>44519</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K8" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L8" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M8" t="n">
-        <v>1550</v>
+        <v>1240</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1550</v>
+        <v>1240</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44545</v>
+        <v>44496</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1080,17 +1080,17 @@
         <v>550</v>
       </c>
       <c r="K10" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="n">
-        <v>1755</v>
+        <v>1773</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1755</v>
+        <v>1773</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44545</v>
+        <v>44511</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K2" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="L2" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="M2" t="n">
-        <v>1755</v>
+        <v>1350</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1755</v>
+        <v>1350</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44477</v>
+        <v>44526</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M3" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44526</v>
+        <v>44468</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L4" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44510</v>
+        <v>44477</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L5" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1350</v>
+        <v>1460</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1350</v>
+        <v>1460</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44468</v>
+        <v>44545</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K6" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L6" t="n">
         <v>1800</v>
       </c>
-      <c r="L6" t="n">
-        <v>2000</v>
-      </c>
       <c r="M6" t="n">
-        <v>1920</v>
+        <v>1755</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1920</v>
+        <v>1755</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44524</v>
+        <v>44496</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,29 +861,29 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="K7" t="n">
         <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>1550</v>
+        <v>1773</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1550</v>
+        <v>1773</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44519</v>
+        <v>44524</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M8" t="n">
-        <v>1240</v>
+        <v>1550</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1240</v>
+        <v>1550</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44511</v>
+        <v>44519</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K9" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L9" t="n">
         <v>1300</v>
       </c>
-      <c r="L9" t="n">
-        <v>1400</v>
-      </c>
       <c r="M9" t="n">
-        <v>1350</v>
+        <v>1240</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1350</v>
+        <v>1240</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44496</v>
+        <v>44489</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K10" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L10" t="n">
         <v>1500</v>
       </c>
-      <c r="L10" t="n">
-        <v>2000</v>
-      </c>
       <c r="M10" t="n">
-        <v>1773</v>
+        <v>1450</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1773</v>
+        <v>1450</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44489</v>
+        <v>44510</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1152,13 +1152,13 @@
         <v>600</v>
       </c>
       <c r="K11" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L11" t="n">
         <v>1400</v>
       </c>
-      <c r="L11" t="n">
-        <v>1500</v>
-      </c>
       <c r="M11" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44511</v>
+        <v>44519</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L2" t="n">
         <v>1300</v>
       </c>
-      <c r="L2" t="n">
-        <v>1400</v>
-      </c>
       <c r="M2" t="n">
-        <v>1350</v>
+        <v>1240</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1350</v>
+        <v>1240</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44526</v>
+        <v>44489</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L3" t="n">
         <v>1500</v>
       </c>
-      <c r="L3" t="n">
-        <v>1600</v>
-      </c>
       <c r="M3" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44468</v>
+        <v>44524</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M4" t="n">
-        <v>1920</v>
+        <v>1550</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1920</v>
+        <v>1550</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44545</v>
+        <v>44468</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L6" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>1755</v>
+        <v>1920</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1755</v>
+        <v>1920</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44496</v>
+        <v>44510</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K7" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M7" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44524</v>
+        <v>44545</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="K8" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L8" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M8" t="n">
-        <v>1550</v>
+        <v>1755</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1550</v>
+        <v>1755</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44519</v>
+        <v>44511</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K9" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="L9" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M9" t="n">
-        <v>1240</v>
+        <v>1350</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1240</v>
+        <v>1350</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44489</v>
+        <v>44526</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M10" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44510</v>
+        <v>44496</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K11" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L11" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44545</v>
+        <v>44839</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
         <v>1700</v>
@@ -942,7 +942,7 @@
         <v>1800</v>
       </c>
       <c r="M8" t="n">
-        <v>1755</v>
+        <v>1760</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1755</v>
+        <v>1760</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44511</v>
+        <v>44545</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K9" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="L9" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="M9" t="n">
-        <v>1350</v>
+        <v>1755</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1350</v>
+        <v>1755</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44526</v>
+        <v>44511</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K10" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L10" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M10" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44496</v>
+        <v>44526</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
         <v>1500</v>
       </c>
       <c r="L11" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M11" t="n">
-        <v>1773</v>
+        <v>1550</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,12 +1171,84 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1773</v>
+        <v>1550</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
       </c>
       <c r="R11" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>550</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1773</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$/paquete</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>1773</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44519</v>
+        <v>44511</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K2" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="L2" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M2" t="n">
-        <v>1240</v>
+        <v>1350</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1240</v>
+        <v>1350</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44489</v>
+        <v>44839</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M3" t="n">
-        <v>1450</v>
+        <v>1760</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1450</v>
+        <v>1760</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44477</v>
+        <v>44468</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -720,13 +720,13 @@
         <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>1460</v>
+        <v>1920</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1460</v>
+        <v>1920</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44468</v>
+        <v>44477</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -792,13 +792,13 @@
         <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L6" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M6" t="n">
-        <v>1920</v>
+        <v>1460</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1920</v>
+        <v>1460</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44510</v>
+        <v>44545</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K7" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="L7" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="M7" t="n">
-        <v>1350</v>
+        <v>1755</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1350</v>
+        <v>1755</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44839</v>
+        <v>44496</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K8" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="n">
-        <v>1760</v>
+        <v>1773</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1760</v>
+        <v>1773</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44545</v>
+        <v>44519</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K9" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="L9" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="M9" t="n">
-        <v>1755</v>
+        <v>1240</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1755</v>
+        <v>1240</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44511</v>
+        <v>44510</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44496</v>
+        <v>44489</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K12" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L12" t="n">
         <v>1500</v>
       </c>
-      <c r="L12" t="n">
-        <v>2000</v>
-      </c>
       <c r="M12" t="n">
-        <v>1773</v>
+        <v>1450</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1773</v>
+        <v>1450</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44511</v>
+        <v>44860</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K2" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M2" t="n">
-        <v>1350</v>
+        <v>1609</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1350</v>
+        <v>1609</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44839</v>
+        <v>44511</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="L3" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="M3" t="n">
-        <v>1760</v>
+        <v>1350</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1760</v>
+        <v>1350</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44524</v>
+        <v>44839</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L4" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M4" t="n">
-        <v>1550</v>
+        <v>1760</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1550</v>
+        <v>1760</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44468</v>
+        <v>44524</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M5" t="n">
-        <v>1920</v>
+        <v>1550</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1920</v>
+        <v>1550</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44477</v>
+        <v>44468</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -792,13 +792,13 @@
         <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>1460</v>
+        <v>1920</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1460</v>
+        <v>1920</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44545</v>
+        <v>44477</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="L7" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="M7" t="n">
-        <v>1755</v>
+        <v>1460</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1755</v>
+        <v>1460</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44496</v>
+        <v>44545</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -936,17 +936,17 @@
         <v>550</v>
       </c>
       <c r="K8" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L8" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M8" t="n">
-        <v>1773</v>
+        <v>1755</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1773</v>
+        <v>1755</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44519</v>
+        <v>44496</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K9" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L9" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="n">
-        <v>1240</v>
+        <v>1773</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1240</v>
+        <v>1773</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44510</v>
+        <v>44519</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L10" t="n">
         <v>1300</v>
       </c>
-      <c r="L10" t="n">
-        <v>1400</v>
-      </c>
       <c r="M10" t="n">
-        <v>1350</v>
+        <v>1240</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1350</v>
+        <v>1240</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44526</v>
+        <v>44510</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K11" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L11" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M11" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44489</v>
+        <v>44526</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L12" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M12" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,12 +1243,84 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
       </c>
       <c r="R12" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>600</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1450</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>1450</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44477</v>
+        <v>44868</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K7" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M7" t="n">
-        <v>1460</v>
+        <v>1250</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1460</v>
+        <v>1250</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44545</v>
+        <v>44868</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="M8" t="n">
-        <v>1755</v>
+        <v>1000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1755</v>
+        <v>1000</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44496</v>
+        <v>44477</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L9" t="n">
         <v>1500</v>
       </c>
-      <c r="L9" t="n">
-        <v>2000</v>
-      </c>
       <c r="M9" t="n">
-        <v>1773</v>
+        <v>1460</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1773</v>
+        <v>1460</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44519</v>
+        <v>44545</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K10" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="L10" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="M10" t="n">
-        <v>1240</v>
+        <v>1755</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1240</v>
+        <v>1755</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44510</v>
+        <v>44496</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K11" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L11" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44526</v>
+        <v>44519</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K12" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L12" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M12" t="n">
-        <v>1550</v>
+        <v>1240</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1550</v>
+        <v>1240</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44489</v>
+        <v>44510</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1296,13 +1296,13 @@
         <v>600</v>
       </c>
       <c r="K13" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L13" t="n">
         <v>1400</v>
       </c>
-      <c r="L13" t="n">
-        <v>1500</v>
-      </c>
       <c r="M13" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,12 +1315,156 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
       </c>
       <c r="R13" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44526</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1600</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1550</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>1550</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="E15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>600</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1450</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>1450</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44526</v>
+        <v>44875</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K14" t="n">
         <v>1500</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44489</v>
+        <v>44526</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L15" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M15" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,12 +1459,84 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>600</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1450</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>1450</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44489</v>
+        <v>44876</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="K16" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L16" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M16" t="n">
-        <v>1450</v>
+        <v>1557</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,12 +1531,84 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1450</v>
+        <v>1557</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>600</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1450</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>1450</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44524</v>
+        <v>44881</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -720,13 +720,13 @@
         <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="L5" t="n">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="M5" t="n">
-        <v>1550</v>
+        <v>2650</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1550</v>
+        <v>2650</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44468</v>
+        <v>44881</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,25 +780,25 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="L6" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M6" t="n">
-        <v>1920</v>
+        <v>2400</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1920</v>
+        <v>2400</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44868</v>
+        <v>44524</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M7" t="n">
-        <v>1250</v>
+        <v>1550</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1250</v>
+        <v>1550</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44868</v>
+        <v>44468</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L8" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="n">
-        <v>1000</v>
+        <v>1920</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1000</v>
+        <v>1920</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44477</v>
+        <v>44868</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K9" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L9" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M9" t="n">
-        <v>1460</v>
+        <v>1250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1460</v>
+        <v>1250</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44545</v>
+        <v>44868</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="L10" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="M10" t="n">
-        <v>1755</v>
+        <v>1000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1755</v>
+        <v>1000</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44496</v>
+        <v>44477</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L11" t="n">
         <v>1500</v>
       </c>
-      <c r="L11" t="n">
-        <v>2000</v>
-      </c>
       <c r="M11" t="n">
-        <v>1773</v>
+        <v>1460</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1773</v>
+        <v>1460</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44519</v>
+        <v>44545</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K12" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="L12" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="M12" t="n">
-        <v>1240</v>
+        <v>1755</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1240</v>
+        <v>1755</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44510</v>
+        <v>44496</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K13" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L13" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M13" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44875</v>
+        <v>44519</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K14" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L14" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M14" t="n">
-        <v>1550</v>
+        <v>1240</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1550</v>
+        <v>1240</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44526</v>
+        <v>44510</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K15" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L15" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M15" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44876</v>
+        <v>44875</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K16" t="n">
         <v>1500</v>
@@ -1518,7 +1518,7 @@
         <v>1600</v>
       </c>
       <c r="M16" t="n">
-        <v>1557</v>
+        <v>1550</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1557</v>
+        <v>1550</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44489</v>
+        <v>44526</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L17" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M17" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,12 +1603,156 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44876</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>350</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1600</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1557</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>1557</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>600</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1450</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>1450</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44860</v>
+        <v>44875</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
         <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="M2" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44511</v>
+        <v>44839</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="L3" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="M3" t="n">
-        <v>1350</v>
+        <v>1760</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1350</v>
+        <v>1760</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44839</v>
+        <v>44545</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K4" t="n">
         <v>1700</v>
@@ -654,7 +654,7 @@
         <v>1800</v>
       </c>
       <c r="M4" t="n">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44881</v>
+        <v>44510</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="L5" t="n">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="M5" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44881</v>
+        <v>44876</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K6" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="L6" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="M6" t="n">
-        <v>2400</v>
+        <v>1557</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2400</v>
+        <v>1557</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44524</v>
+        <v>44526</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
         <v>1500</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44468</v>
+        <v>44524</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M8" t="n">
-        <v>1920</v>
+        <v>1550</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1920</v>
+        <v>1550</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44868</v>
+        <v>44519</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="K9" t="n">
         <v>1200</v>
@@ -1014,7 +1014,7 @@
         <v>1300</v>
       </c>
       <c r="M9" t="n">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44868</v>
+        <v>44511</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L10" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="M10" t="n">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44545</v>
+        <v>44489</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K12" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="L12" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="M12" t="n">
-        <v>1755</v>
+        <v>1450</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1755</v>
+        <v>1450</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44496</v>
+        <v>44468</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L13" t="n">
         <v>2000</v>
       </c>
       <c r="M13" t="n">
-        <v>1773</v>
+        <v>1920</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1773</v>
+        <v>1920</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44519</v>
+        <v>44868</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="K14" t="n">
         <v>1200</v>
@@ -1374,7 +1374,7 @@
         <v>1300</v>
       </c>
       <c r="M14" t="n">
-        <v>1240</v>
+        <v>1250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1240</v>
+        <v>1250</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44510</v>
+        <v>44868</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="L15" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="M15" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44875</v>
+        <v>44881</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="L16" t="n">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="M16" t="n">
-        <v>1550</v>
+        <v>2650</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1550</v>
+        <v>2650</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44526</v>
+        <v>44881</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
         <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="L17" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="M17" t="n">
-        <v>1550</v>
+        <v>2400</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1550</v>
+        <v>2400</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44876</v>
+        <v>44860</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="K18" t="n">
         <v>1500</v>
       </c>
       <c r="L18" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M18" t="n">
-        <v>1557</v>
+        <v>1609</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1557</v>
+        <v>1609</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K19" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L19" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M19" t="n">
-        <v>1450</v>
+        <v>1773</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1450</v>
+        <v>1773</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44875</v>
+        <v>44545</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L2" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M2" t="n">
-        <v>1550</v>
+        <v>1755</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1550</v>
+        <v>1755</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44839</v>
+        <v>44511</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="L3" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="M3" t="n">
-        <v>1760</v>
+        <v>1350</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1760</v>
+        <v>1350</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44545</v>
+        <v>44510</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="L4" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="M4" t="n">
-        <v>1755</v>
+        <v>1350</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1755</v>
+        <v>1350</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44510</v>
+        <v>44526</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L5" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M5" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44876</v>
+        <v>44489</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="K6" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L6" t="n">
         <v>1500</v>
       </c>
-      <c r="L6" t="n">
-        <v>1600</v>
-      </c>
       <c r="M6" t="n">
-        <v>1557</v>
+        <v>1450</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1557</v>
+        <v>1450</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44526</v>
+        <v>44876</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K7" t="n">
         <v>1500</v>
@@ -870,7 +870,7 @@
         <v>1600</v>
       </c>
       <c r="M7" t="n">
-        <v>1550</v>
+        <v>1557</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1550</v>
+        <v>1557</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44524</v>
+        <v>44860</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="K8" t="n">
         <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M8" t="n">
-        <v>1550</v>
+        <v>1609</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1550</v>
+        <v>1609</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44519</v>
+        <v>44477</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L9" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M9" t="n">
-        <v>1240</v>
+        <v>1460</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1240</v>
+        <v>1460</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44511</v>
+        <v>44496</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K10" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44477</v>
+        <v>44875</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K11" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L11" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M11" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44489</v>
+        <v>44839</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L12" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M12" t="n">
-        <v>1450</v>
+        <v>1760</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1450</v>
+        <v>1760</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44468</v>
+        <v>44868</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K13" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="L13" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M13" t="n">
-        <v>1920</v>
+        <v>1250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1920</v>
+        <v>1250</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
+        <v>200</v>
+      </c>
+      <c r="K14" t="n">
         <v>1000</v>
       </c>
-      <c r="K14" t="n">
-        <v>1200</v>
-      </c>
       <c r="L14" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="M14" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44868</v>
+        <v>44524</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
         <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L15" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="M15" t="n">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44860</v>
+        <v>44468</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L18" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M18" t="n">
-        <v>1609</v>
+        <v>1920</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1609</v>
+        <v>1920</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44496</v>
+        <v>44519</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K19" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L19" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M19" t="n">
-        <v>1773</v>
+        <v>1240</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1773</v>
+        <v>1240</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44545</v>
+        <v>44524</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M2" t="n">
-        <v>1755</v>
+        <v>1550</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1755</v>
+        <v>1550</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44511</v>
+        <v>44860</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M3" t="n">
-        <v>1350</v>
+        <v>1609</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1350</v>
+        <v>1609</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44510</v>
+        <v>44519</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L4" t="n">
         <v>1300</v>
       </c>
-      <c r="L4" t="n">
-        <v>1400</v>
-      </c>
       <c r="M4" t="n">
-        <v>1350</v>
+        <v>1240</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1350</v>
+        <v>1240</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44526</v>
+        <v>44510</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L5" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M5" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K6" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>1450</v>
+        <v>1773</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1450</v>
+        <v>1773</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44860</v>
+        <v>44489</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L8" t="n">
         <v>1500</v>
       </c>
-      <c r="L8" t="n">
-        <v>1700</v>
-      </c>
       <c r="M8" t="n">
-        <v>1609</v>
+        <v>1450</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1609</v>
+        <v>1450</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44477</v>
+        <v>44526</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L9" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M9" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44496</v>
+        <v>44881</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="L10" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M10" t="n">
-        <v>1773</v>
+        <v>2650</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1773</v>
+        <v>2650</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44875</v>
+        <v>44881</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="L11" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="M11" t="n">
-        <v>1550</v>
+        <v>2400</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1550</v>
+        <v>2400</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44839</v>
+        <v>44875</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K12" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L12" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M12" t="n">
-        <v>1760</v>
+        <v>1550</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1760</v>
+        <v>1550</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44524</v>
+        <v>44511</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K15" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L15" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M15" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44881</v>
+        <v>44839</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="L16" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M16" t="n">
-        <v>2650</v>
+        <v>1760</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2650</v>
+        <v>1760</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44881</v>
+        <v>44468</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,25 +1572,25 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="L17" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="M17" t="n">
-        <v>2400</v>
+        <v>1920</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2400</v>
+        <v>1920</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44468</v>
+        <v>44477</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1656,13 +1656,13 @@
         <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L18" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M18" t="n">
-        <v>1920</v>
+        <v>1460</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1920</v>
+        <v>1460</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44519</v>
+        <v>44545</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K19" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="L19" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="M19" t="n">
-        <v>1240</v>
+        <v>1755</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1240</v>
+        <v>1755</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44860</v>
+        <v>44510</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L3" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="M3" t="n">
-        <v>1609</v>
+        <v>1350</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1609</v>
+        <v>1350</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44519</v>
+        <v>44881</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="L4" t="n">
-        <v>1300</v>
+        <v>2700</v>
       </c>
       <c r="M4" t="n">
-        <v>1240</v>
+        <v>2650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1240</v>
+        <v>2650</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44510</v>
+        <v>44881</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="L5" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="M5" t="n">
-        <v>1350</v>
+        <v>2400</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1350</v>
+        <v>2400</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44496</v>
+        <v>44468</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L6" t="n">
         <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>1773</v>
+        <v>1920</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1773</v>
+        <v>1920</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44876</v>
+        <v>44496</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="K7" t="n">
         <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>1557</v>
+        <v>1773</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1557</v>
+        <v>1773</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44489</v>
+        <v>44511</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -936,13 +936,13 @@
         <v>600</v>
       </c>
       <c r="K8" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L8" t="n">
         <v>1400</v>
       </c>
-      <c r="L8" t="n">
-        <v>1500</v>
-      </c>
       <c r="M8" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44881</v>
+        <v>44489</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K10" t="n">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="L10" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>2650</v>
+        <v>1450</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2650</v>
+        <v>1450</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44881</v>
+        <v>44876</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K11" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="L11" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="M11" t="n">
-        <v>2400</v>
+        <v>1557</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2400</v>
+        <v>1557</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44875</v>
+        <v>44860</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K12" t="n">
         <v>1500</v>
       </c>
       <c r="L12" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M12" t="n">
-        <v>1550</v>
+        <v>1609</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1550</v>
+        <v>1609</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44868</v>
+        <v>44545</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="K13" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="L13" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="M13" t="n">
-        <v>1250</v>
+        <v>1755</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1250</v>
+        <v>1755</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44868</v>
+        <v>44875</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L14" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="M14" t="n">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44511</v>
+        <v>44839</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="L15" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="M15" t="n">
-        <v>1350</v>
+        <v>1760</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1350</v>
+        <v>1760</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44839</v>
+        <v>44519</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K16" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="L16" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="M16" t="n">
-        <v>1760</v>
+        <v>1240</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1760</v>
+        <v>1240</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44468</v>
+        <v>44868</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K17" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="L17" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M17" t="n">
-        <v>1920</v>
+        <v>1250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1920</v>
+        <v>1250</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44477</v>
+        <v>44868</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="L18" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M18" t="n">
-        <v>1460</v>
+        <v>1000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1460</v>
+        <v>1000</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44545</v>
+        <v>44477</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="L19" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="M19" t="n">
-        <v>1755</v>
+        <v>1460</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1755</v>
+        <v>1460</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44510</v>
+        <v>44860</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M3" t="n">
-        <v>1350</v>
+        <v>1609</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1350</v>
+        <v>1609</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44881</v>
+        <v>44519</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>2600</v>
+        <v>1200</v>
       </c>
       <c r="L4" t="n">
-        <v>2700</v>
+        <v>1300</v>
       </c>
       <c r="M4" t="n">
-        <v>2650</v>
+        <v>1240</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2650</v>
+        <v>1240</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44881</v>
+        <v>44510</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="L5" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="M5" t="n">
-        <v>2400</v>
+        <v>1350</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2400</v>
+        <v>1350</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44468</v>
+        <v>44496</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K6" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L6" t="n">
         <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>1920</v>
+        <v>1773</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1920</v>
+        <v>1773</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44496</v>
+        <v>44876</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="K7" t="n">
         <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M7" t="n">
-        <v>1773</v>
+        <v>1557</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1773</v>
+        <v>1557</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44511</v>
+        <v>44489</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -936,13 +936,13 @@
         <v>600</v>
       </c>
       <c r="K8" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L8" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M8" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44489</v>
+        <v>44881</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>1400</v>
+        <v>2600</v>
       </c>
       <c r="L10" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="M10" t="n">
-        <v>1450</v>
+        <v>2650</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1450</v>
+        <v>2650</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44876</v>
+        <v>44881</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="L11" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="M11" t="n">
-        <v>1557</v>
+        <v>2400</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1557</v>
+        <v>2400</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44860</v>
+        <v>44875</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K12" t="n">
         <v>1500</v>
       </c>
       <c r="L12" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="M12" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44545</v>
+        <v>44868</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="K13" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="L13" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="M13" t="n">
-        <v>1755</v>
+        <v>1250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1755</v>
+        <v>1250</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44875</v>
+        <v>44868</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="M14" t="n">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44839</v>
+        <v>44511</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K15" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="L15" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="M15" t="n">
-        <v>1760</v>
+        <v>1350</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1760</v>
+        <v>1350</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44519</v>
+        <v>44839</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="L16" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="M16" t="n">
-        <v>1240</v>
+        <v>1760</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1240</v>
+        <v>1760</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44868</v>
+        <v>44468</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="L17" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="M17" t="n">
-        <v>1250</v>
+        <v>1920</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1250</v>
+        <v>1920</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44868</v>
+        <v>44477</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L18" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M18" t="n">
-        <v>1000</v>
+        <v>1460</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1000</v>
+        <v>1460</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44477</v>
+        <v>44545</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K19" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L19" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M19" t="n">
-        <v>1460</v>
+        <v>1755</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1460</v>
+        <v>1755</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44524</v>
+        <v>44875</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
         <v>1500</v>
@@ -519,7 +519,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44510</v>
+        <v>44477</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L3" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M3" t="n">
-        <v>1350</v>
+        <v>1460</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1350</v>
+        <v>1460</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44881</v>
+        <v>44511</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="L4" t="n">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="M4" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44881</v>
+        <v>44839</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="L5" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="M5" t="n">
-        <v>2400</v>
+        <v>1760</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2400</v>
+        <v>1760</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44496</v>
+        <v>44876</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="K7" t="n">
         <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M7" t="n">
-        <v>1773</v>
+        <v>1557</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1773</v>
+        <v>1557</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44511</v>
+        <v>44860</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K8" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M8" t="n">
-        <v>1350</v>
+        <v>1609</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1350</v>
+        <v>1609</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44526</v>
+        <v>44545</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K9" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L9" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M9" t="n">
-        <v>1550</v>
+        <v>1755</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1550</v>
+        <v>1755</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44489</v>
+        <v>44519</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K10" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L10" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M10" t="n">
-        <v>1450</v>
+        <v>1240</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1450</v>
+        <v>1240</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44876</v>
+        <v>44496</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="K11" t="n">
         <v>1500</v>
       </c>
       <c r="L11" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M11" t="n">
-        <v>1557</v>
+        <v>1773</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1557</v>
+        <v>1773</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44860</v>
+        <v>44868</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K12" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L12" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="M12" t="n">
-        <v>1609</v>
+        <v>1250</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1609</v>
+        <v>1250</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44545</v>
+        <v>44868</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="M13" t="n">
-        <v>1755</v>
+        <v>1000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1755</v>
+        <v>1000</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44875</v>
+        <v>44489</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K14" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L14" t="n">
         <v>1500</v>
       </c>
-      <c r="L14" t="n">
-        <v>1600</v>
-      </c>
       <c r="M14" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44839</v>
+        <v>44526</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L15" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M15" t="n">
-        <v>1760</v>
+        <v>1550</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1760</v>
+        <v>1550</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44519</v>
+        <v>44881</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="L16" t="n">
-        <v>1300</v>
+        <v>2700</v>
       </c>
       <c r="M16" t="n">
-        <v>1240</v>
+        <v>2650</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1240</v>
+        <v>2650</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44868</v>
+        <v>44881</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="L17" t="n">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="M17" t="n">
-        <v>1250</v>
+        <v>2400</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1250</v>
+        <v>2400</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44868</v>
+        <v>44524</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
         <v>200</v>
       </c>
       <c r="K18" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L18" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="M18" t="n">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44477</v>
+        <v>44510</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K19" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L19" t="n">
         <v>1400</v>
       </c>
-      <c r="L19" t="n">
-        <v>1500</v>
-      </c>
       <c r="M19" t="n">
-        <v>1460</v>
+        <v>1350</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1460</v>
+        <v>1350</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44875</v>
+        <v>44839</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L2" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M2" t="n">
-        <v>1550</v>
+        <v>1760</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1550</v>
+        <v>1760</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44477</v>
+        <v>44545</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K3" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M3" t="n">
-        <v>1460</v>
+        <v>1755</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1460</v>
+        <v>1755</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44511</v>
+        <v>44875</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M4" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44839</v>
+        <v>44468</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -720,13 +720,13 @@
         <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L5" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>1760</v>
+        <v>1920</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1760</v>
+        <v>1920</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44468</v>
+        <v>44860</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K6" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L6" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M6" t="n">
-        <v>1920</v>
+        <v>1609</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1920</v>
+        <v>1609</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44876</v>
+        <v>44496</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="K7" t="n">
         <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>1557</v>
+        <v>1773</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1557</v>
+        <v>1773</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44860</v>
+        <v>44489</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L8" t="n">
         <v>1500</v>
       </c>
-      <c r="L8" t="n">
-        <v>1700</v>
-      </c>
       <c r="M8" t="n">
-        <v>1609</v>
+        <v>1450</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1609</v>
+        <v>1450</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44545</v>
+        <v>44477</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="L9" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="M9" t="n">
-        <v>1755</v>
+        <v>1460</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1755</v>
+        <v>1460</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44519</v>
+        <v>44876</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K10" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M10" t="n">
-        <v>1240</v>
+        <v>1557</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1240</v>
+        <v>1557</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44496</v>
+        <v>44510</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,20 +1149,20 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K11" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L11" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M11" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44868</v>
+        <v>44524</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L12" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M12" t="n">
-        <v>1250</v>
+        <v>1550</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1250</v>
+        <v>1550</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44868</v>
+        <v>44511</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L13" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="M13" t="n">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44489</v>
+        <v>44519</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K14" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L14" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M14" t="n">
-        <v>1450</v>
+        <v>1240</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1450</v>
+        <v>1240</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44526</v>
+        <v>44881</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="L15" t="n">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="M15" t="n">
-        <v>1550</v>
+        <v>2650</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1550</v>
+        <v>2650</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="L16" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="M16" t="n">
-        <v>2650</v>
+        <v>2400</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2650</v>
+        <v>2400</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44881</v>
+        <v>44868</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="K17" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="L17" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="M17" t="n">
-        <v>2400</v>
+        <v>1250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2400</v>
+        <v>1250</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44524</v>
+        <v>44868</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
         <v>200</v>
       </c>
       <c r="K18" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L18" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="M18" t="n">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44510</v>
+        <v>44526</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L19" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M19" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44839</v>
+        <v>44868</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K2" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="L2" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="M2" t="n">
-        <v>1760</v>
+        <v>1250</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1760</v>
+        <v>1250</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44545</v>
+        <v>44868</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="M3" t="n">
-        <v>1755</v>
+        <v>1000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1755</v>
+        <v>1000</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44875</v>
+        <v>44860</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K4" t="n">
         <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M4" t="n">
-        <v>1550</v>
+        <v>1609</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1550</v>
+        <v>1609</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44468</v>
+        <v>44545</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K5" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L5" t="n">
         <v>1800</v>
       </c>
-      <c r="L5" t="n">
-        <v>2000</v>
-      </c>
       <c r="M5" t="n">
-        <v>1920</v>
+        <v>1755</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1920</v>
+        <v>1755</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44860</v>
+        <v>44875</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
         <v>1500</v>
       </c>
       <c r="L6" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="M6" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44496</v>
+        <v>44526</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
         <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M7" t="n">
-        <v>1773</v>
+        <v>1550</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1773</v>
+        <v>1550</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K8" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="n">
-        <v>1450</v>
+        <v>1773</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1450</v>
+        <v>1773</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44477</v>
+        <v>44524</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L9" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M9" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44876</v>
+        <v>44519</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K10" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L10" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M10" t="n">
-        <v>1557</v>
+        <v>1240</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1557</v>
+        <v>1240</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44510</v>
+        <v>44477</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L11" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M11" t="n">
-        <v>1350</v>
+        <v>1460</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1350</v>
+        <v>1460</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44524</v>
+        <v>44510</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K12" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L12" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M12" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44511</v>
+        <v>44489</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1296,13 +1296,13 @@
         <v>600</v>
       </c>
       <c r="K13" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L13" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M13" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44519</v>
+        <v>44468</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="L14" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="M14" t="n">
-        <v>1240</v>
+        <v>1920</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1240</v>
+        <v>1920</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44881</v>
+        <v>44839</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="L15" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M15" t="n">
-        <v>2650</v>
+        <v>1760</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2650</v>
+        <v>1760</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44881</v>
+        <v>44511</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K16" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="L16" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="M16" t="n">
-        <v>2400</v>
+        <v>1350</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2400</v>
+        <v>1350</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44868</v>
+        <v>44881</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="L17" t="n">
-        <v>1300</v>
+        <v>2700</v>
       </c>
       <c r="M17" t="n">
-        <v>1250</v>
+        <v>2650</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1250</v>
+        <v>2650</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44868</v>
+        <v>44881</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="L18" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="M18" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44526</v>
+        <v>44876</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K19" t="n">
         <v>1500</v>
@@ -1734,7 +1734,7 @@
         <v>1600</v>
       </c>
       <c r="M19" t="n">
-        <v>1550</v>
+        <v>1557</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1550</v>
+        <v>1557</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44868</v>
+        <v>44496</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,29 +501,29 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="K2" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>1250</v>
+        <v>1773</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1250</v>
+        <v>1773</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44868</v>
+        <v>44510</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L3" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="M3" t="n">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44860</v>
+        <v>44875</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
         <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="M4" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44545</v>
+        <v>44881</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="L5" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="M5" t="n">
-        <v>1755</v>
+        <v>2650</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1755</v>
+        <v>2650</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44875</v>
+        <v>44881</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="L6" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="M6" t="n">
-        <v>1550</v>
+        <v>2400</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1550</v>
+        <v>2400</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44496</v>
+        <v>44511</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L8" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M8" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44519</v>
+        <v>44489</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K10" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L10" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>1240</v>
+        <v>1450</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1240</v>
+        <v>1450</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44477</v>
+        <v>44545</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K11" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L11" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M11" t="n">
-        <v>1460</v>
+        <v>1755</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1460</v>
+        <v>1755</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44510</v>
+        <v>44477</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L12" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M12" t="n">
-        <v>1350</v>
+        <v>1460</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1350</v>
+        <v>1460</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44489</v>
+        <v>44468</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L13" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M13" t="n">
-        <v>1450</v>
+        <v>1920</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1450</v>
+        <v>1920</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44468</v>
+        <v>44519</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K14" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="L14" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M14" t="n">
-        <v>1920</v>
+        <v>1240</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1920</v>
+        <v>1240</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44839</v>
+        <v>44876</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K15" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L15" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M15" t="n">
-        <v>1760</v>
+        <v>1557</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1760</v>
+        <v>1557</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44511</v>
+        <v>44868</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K16" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L16" t="n">
         <v>1300</v>
       </c>
-      <c r="L16" t="n">
-        <v>1400</v>
-      </c>
       <c r="M16" t="n">
-        <v>1350</v>
+        <v>1250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1350</v>
+        <v>1250</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44881</v>
+        <v>44868</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
         <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="L17" t="n">
-        <v>2700</v>
+        <v>1000</v>
       </c>
       <c r="M17" t="n">
-        <v>2650</v>
+        <v>1000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2650</v>
+        <v>1000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44881</v>
+        <v>44860</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="K18" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="L18" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="M18" t="n">
-        <v>2400</v>
+        <v>1609</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2400</v>
+        <v>1609</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44876</v>
+        <v>44839</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L19" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M19" t="n">
-        <v>1557</v>
+        <v>1760</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1557</v>
+        <v>1760</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44496</v>
+        <v>44511</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,20 +501,20 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K2" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M2" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44510</v>
+        <v>44860</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="M3" t="n">
-        <v>1350</v>
+        <v>1609</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1350</v>
+        <v>1609</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44875</v>
+        <v>44519</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L4" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M4" t="n">
-        <v>1550</v>
+        <v>1240</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1550</v>
+        <v>1240</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44881</v>
+        <v>44510</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="L5" t="n">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="M5" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44881</v>
+        <v>44477</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="L6" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="M6" t="n">
-        <v>2400</v>
+        <v>1460</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>2400</v>
+        <v>1460</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44526</v>
+        <v>44881</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="L7" t="n">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="M7" t="n">
-        <v>1550</v>
+        <v>2650</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1550</v>
+        <v>2650</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44511</v>
+        <v>44881</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="L8" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="M8" t="n">
-        <v>1350</v>
+        <v>2400</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1350</v>
+        <v>2400</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44524</v>
+        <v>44876</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K9" t="n">
         <v>1500</v>
@@ -1014,7 +1014,7 @@
         <v>1600</v>
       </c>
       <c r="M9" t="n">
-        <v>1550</v>
+        <v>1557</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1550</v>
+        <v>1557</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44489</v>
+        <v>44468</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L10" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="n">
-        <v>1450</v>
+        <v>1920</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1450</v>
+        <v>1920</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44477</v>
+        <v>44496</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K12" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L12" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="n">
-        <v>1460</v>
+        <v>1773</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1460</v>
+        <v>1773</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44468</v>
+        <v>44524</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L13" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M13" t="n">
-        <v>1920</v>
+        <v>1550</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1920</v>
+        <v>1550</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44519</v>
+        <v>44489</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K14" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L14" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M14" t="n">
-        <v>1240</v>
+        <v>1450</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1240</v>
+        <v>1450</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44876</v>
+        <v>44839</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L15" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M15" t="n">
-        <v>1557</v>
+        <v>1760</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1557</v>
+        <v>1760</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44860</v>
+        <v>44875</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K18" t="n">
         <v>1500</v>
       </c>
       <c r="L18" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="M18" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44839</v>
+        <v>44526</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L19" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M19" t="n">
-        <v>1760</v>
+        <v>1550</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1760</v>
+        <v>1550</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44511</v>
+        <v>44477</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L2" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>1350</v>
+        <v>1460</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1350</v>
+        <v>1460</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44860</v>
+        <v>44519</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L3" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="M3" t="n">
-        <v>1609</v>
+        <v>1240</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1609</v>
+        <v>1240</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44519</v>
+        <v>44489</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L4" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M4" t="n">
-        <v>1240</v>
+        <v>1450</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1240</v>
+        <v>1450</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44510</v>
+        <v>44868</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L5" t="n">
         <v>1300</v>
       </c>
-      <c r="L5" t="n">
-        <v>1400</v>
-      </c>
       <c r="M5" t="n">
-        <v>1350</v>
+        <v>1250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1350</v>
+        <v>1250</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44477</v>
+        <v>44868</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M6" t="n">
-        <v>1460</v>
+        <v>1000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1460</v>
+        <v>1000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44881</v>
+        <v>44860</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="K7" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="M7" t="n">
-        <v>2650</v>
+        <v>1609</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2650</v>
+        <v>1609</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44881</v>
+        <v>44510</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="L8" t="n">
-        <v>2400</v>
+        <v>1400</v>
       </c>
       <c r="M8" t="n">
-        <v>2400</v>
+        <v>1350</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2400</v>
+        <v>1350</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44876</v>
+        <v>44526</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
         <v>1500</v>
@@ -1014,7 +1014,7 @@
         <v>1600</v>
       </c>
       <c r="M9" t="n">
-        <v>1557</v>
+        <v>1550</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1557</v>
+        <v>1550</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44468</v>
+        <v>44496</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,20 +1077,20 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K10" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L10" t="n">
         <v>2000</v>
       </c>
       <c r="M10" t="n">
-        <v>1920</v>
+        <v>1773</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1920</v>
+        <v>1773</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44545</v>
+        <v>44875</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K11" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L11" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M11" t="n">
-        <v>1755</v>
+        <v>1550</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1755</v>
+        <v>1550</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44496</v>
+        <v>44876</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,20 +1221,20 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="K12" t="n">
         <v>1500</v>
       </c>
       <c r="L12" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M12" t="n">
-        <v>1773</v>
+        <v>1557</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1773</v>
+        <v>1557</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44489</v>
+        <v>44839</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L14" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M14" t="n">
-        <v>1450</v>
+        <v>1760</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1450</v>
+        <v>1760</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44839</v>
+        <v>44511</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K15" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="L15" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="M15" t="n">
-        <v>1760</v>
+        <v>1350</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1760</v>
+        <v>1350</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44868</v>
+        <v>44881</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="L16" t="n">
-        <v>1300</v>
+        <v>2700</v>
       </c>
       <c r="M16" t="n">
-        <v>1250</v>
+        <v>2650</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1250</v>
+        <v>2650</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44868</v>
+        <v>44881</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="L17" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="M17" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44875</v>
+        <v>44468</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L18" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M18" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44526</v>
+        <v>44545</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K19" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L19" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M19" t="n">
-        <v>1550</v>
+        <v>1755</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1550</v>
+        <v>1755</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44477</v>
+        <v>44839</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -504,13 +504,13 @@
         <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M2" t="n">
-        <v>1460</v>
+        <v>1760</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1460</v>
+        <v>1760</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44519</v>
+        <v>44868</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="K3" t="n">
         <v>1200</v>
@@ -582,7 +582,7 @@
         <v>1300</v>
       </c>
       <c r="M3" t="n">
-        <v>1240</v>
+        <v>1250</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1240</v>
+        <v>1250</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44489</v>
+        <v>44868</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M4" t="n">
-        <v>1450</v>
+        <v>1000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1450</v>
+        <v>1000</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44868</v>
+        <v>44489</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L5" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1250</v>
+        <v>1450</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1250</v>
+        <v>1450</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44868</v>
+        <v>44860</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L6" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="M6" t="n">
-        <v>1000</v>
+        <v>1609</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1000</v>
+        <v>1609</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44860</v>
+        <v>44511</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K7" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L7" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="M7" t="n">
-        <v>1609</v>
+        <v>1350</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1609</v>
+        <v>1350</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44510</v>
+        <v>44526</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M8" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44526</v>
+        <v>44876</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K9" t="n">
         <v>1500</v>
@@ -1014,7 +1014,7 @@
         <v>1600</v>
       </c>
       <c r="M9" t="n">
-        <v>1550</v>
+        <v>1557</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1550</v>
+        <v>1557</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44496</v>
+        <v>44524</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,29 +1077,29 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
         <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M10" t="n">
-        <v>1773</v>
+        <v>1550</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1773</v>
+        <v>1550</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44876</v>
+        <v>44477</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L12" t="n">
         <v>1500</v>
       </c>
-      <c r="L12" t="n">
-        <v>1600</v>
-      </c>
       <c r="M12" t="n">
-        <v>1557</v>
+        <v>1460</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1557</v>
+        <v>1460</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44524</v>
+        <v>44519</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K13" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L13" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M13" t="n">
-        <v>1550</v>
+        <v>1240</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1550</v>
+        <v>1240</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44839</v>
+        <v>44545</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K14" t="n">
         <v>1700</v>
@@ -1374,7 +1374,7 @@
         <v>1800</v>
       </c>
       <c r="M14" t="n">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1760</v>
+        <v>1755</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44511</v>
+        <v>44881</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="L15" t="n">
-        <v>1400</v>
+        <v>2700</v>
       </c>
       <c r="M15" t="n">
-        <v>1350</v>
+        <v>2650</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1350</v>
+        <v>2650</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="L16" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="M16" t="n">
-        <v>2650</v>
+        <v>2400</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2650</v>
+        <v>2400</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44881</v>
+        <v>44496</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1577,24 +1577,24 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K17" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="L17" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="M17" t="n">
-        <v>2400</v>
+        <v>1773</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2400</v>
+        <v>1773</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K18" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="L18" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M18" t="n">
-        <v>1920</v>
+        <v>1350</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1920</v>
+        <v>1350</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44545</v>
+        <v>44468</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L19" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M19" t="n">
-        <v>1755</v>
+        <v>1920</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1755</v>
+        <v>1920</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44839</v>
+        <v>44489</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K2" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="L2" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="M2" t="n">
-        <v>1760</v>
+        <v>1450</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1760</v>
+        <v>1450</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44868</v>
+        <v>44511</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="L3" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M3" t="n">
-        <v>1250</v>
+        <v>1350</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1250</v>
+        <v>1350</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44868</v>
+        <v>44526</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -641,20 +641,20 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="M4" t="n">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44489</v>
+        <v>44468</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>1450</v>
+        <v>1920</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1450</v>
+        <v>1920</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44860</v>
+        <v>44519</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="K6" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L6" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="M6" t="n">
-        <v>1609</v>
+        <v>1240</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1609</v>
+        <v>1240</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44511</v>
+        <v>44839</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="L7" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="M7" t="n">
-        <v>1350</v>
+        <v>1760</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1350</v>
+        <v>1760</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44526</v>
+        <v>44876</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K8" t="n">
         <v>1500</v>
@@ -942,7 +942,7 @@
         <v>1600</v>
       </c>
       <c r="M8" t="n">
-        <v>1550</v>
+        <v>1557</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1550</v>
+        <v>1557</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44876</v>
+        <v>44868</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="K9" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L9" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M9" t="n">
-        <v>1557</v>
+        <v>1250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1557</v>
+        <v>1250</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44524</v>
+        <v>44868</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
         <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L10" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="M10" t="n">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44875</v>
+        <v>44510</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K11" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L11" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M11" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44477</v>
+        <v>44860</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K12" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L12" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M12" t="n">
-        <v>1460</v>
+        <v>1609</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1460</v>
+        <v>1609</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44519</v>
+        <v>44545</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K13" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="L13" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="M13" t="n">
-        <v>1240</v>
+        <v>1755</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1240</v>
+        <v>1755</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44545</v>
+        <v>44524</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L14" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M14" t="n">
-        <v>1755</v>
+        <v>1550</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1755</v>
+        <v>1550</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44881</v>
+        <v>44477</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="L15" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="M15" t="n">
-        <v>2650</v>
+        <v>1460</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2650</v>
+        <v>1460</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44881</v>
+        <v>44875</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K16" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="L16" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="M16" t="n">
-        <v>2400</v>
+        <v>1550</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2400</v>
+        <v>1550</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44496</v>
+        <v>44881</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,20 +1581,20 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="L17" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M17" t="n">
-        <v>1773</v>
+        <v>2650</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1773</v>
+        <v>2650</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44510</v>
+        <v>44881</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="L18" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="M18" t="n">
-        <v>1350</v>
+        <v>2400</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1350</v>
+        <v>2400</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44468</v>
+        <v>44496</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K19" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L19" t="n">
         <v>2000</v>
       </c>
       <c r="M19" t="n">
-        <v>1920</v>
+        <v>1773</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1920</v>
+        <v>1773</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44489</v>
+        <v>44875</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M2" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44526</v>
+        <v>44860</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="K4" t="n">
         <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M4" t="n">
-        <v>1550</v>
+        <v>1609</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1550</v>
+        <v>1609</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44468</v>
+        <v>44524</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M5" t="n">
-        <v>1920</v>
+        <v>1550</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1920</v>
+        <v>1550</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44839</v>
+        <v>44477</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -864,13 +864,13 @@
         <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="L7" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="M7" t="n">
-        <v>1760</v>
+        <v>1460</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1760</v>
+        <v>1460</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44876</v>
+        <v>44496</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="K8" t="n">
         <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="n">
-        <v>1557</v>
+        <v>1773</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1557</v>
+        <v>1773</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44868</v>
+        <v>44881</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="L9" t="n">
-        <v>1300</v>
+        <v>2700</v>
       </c>
       <c r="M9" t="n">
-        <v>1250</v>
+        <v>2650</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1250</v>
+        <v>2650</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44868</v>
+        <v>44881</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="L10" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="M10" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44510</v>
+        <v>44876</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="K11" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L11" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M11" t="n">
-        <v>1350</v>
+        <v>1557</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1350</v>
+        <v>1557</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44860</v>
+        <v>44839</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L12" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="M12" t="n">
-        <v>1609</v>
+        <v>1760</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1609</v>
+        <v>1760</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44545</v>
+        <v>44489</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K13" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="L13" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="M13" t="n">
-        <v>1755</v>
+        <v>1450</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1755</v>
+        <v>1450</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44524</v>
+        <v>44526</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
         <v>1500</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44477</v>
+        <v>44868</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K15" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L15" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M15" t="n">
-        <v>1460</v>
+        <v>1250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1460</v>
+        <v>1250</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44875</v>
+        <v>44868</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L16" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="M16" t="n">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44881</v>
+        <v>44510</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K17" t="n">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="L17" t="n">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="M17" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44881</v>
+        <v>44545</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K18" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="L18" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="M18" t="n">
-        <v>2400</v>
+        <v>1755</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2400</v>
+        <v>1755</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44496</v>
+        <v>44468</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L19" t="n">
         <v>2000</v>
       </c>
       <c r="M19" t="n">
-        <v>1773</v>
+        <v>1920</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1773</v>
+        <v>1920</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44875</v>
+        <v>44489</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L2" t="n">
         <v>1500</v>
       </c>
-      <c r="L2" t="n">
-        <v>1600</v>
-      </c>
       <c r="M2" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44860</v>
+        <v>44526</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
         <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="M4" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44524</v>
+        <v>44468</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L5" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44477</v>
+        <v>44839</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -864,13 +864,13 @@
         <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M7" t="n">
-        <v>1460</v>
+        <v>1760</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1460</v>
+        <v>1760</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44496</v>
+        <v>44876</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="K8" t="n">
         <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M8" t="n">
-        <v>1773</v>
+        <v>1557</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1773</v>
+        <v>1557</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44881</v>
+        <v>44868</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K9" t="n">
-        <v>2600</v>
+        <v>1200</v>
       </c>
       <c r="L9" t="n">
-        <v>2700</v>
+        <v>1300</v>
       </c>
       <c r="M9" t="n">
-        <v>2650</v>
+        <v>1250</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2650</v>
+        <v>1250</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44881</v>
+        <v>44868</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="L10" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="M10" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44876</v>
+        <v>44510</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="K11" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L11" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M11" t="n">
-        <v>1557</v>
+        <v>1350</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1557</v>
+        <v>1350</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44839</v>
+        <v>44860</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L12" t="n">
         <v>1700</v>
       </c>
-      <c r="L12" t="n">
-        <v>1800</v>
-      </c>
       <c r="M12" t="n">
-        <v>1760</v>
+        <v>1609</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1760</v>
+        <v>1609</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44489</v>
+        <v>44545</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K13" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L13" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M13" t="n">
-        <v>1450</v>
+        <v>1755</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1450</v>
+        <v>1755</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44526</v>
+        <v>44524</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
         <v>1500</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44868</v>
+        <v>44477</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K15" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L15" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M15" t="n">
-        <v>1250</v>
+        <v>1460</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1250</v>
+        <v>1460</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44868</v>
+        <v>44875</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K16" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L16" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="M16" t="n">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44510</v>
+        <v>44881</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="L17" t="n">
-        <v>1400</v>
+        <v>2700</v>
       </c>
       <c r="M17" t="n">
-        <v>1350</v>
+        <v>2650</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1350</v>
+        <v>2650</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44545</v>
+        <v>44881</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="L18" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M18" t="n">
-        <v>1755</v>
+        <v>2400</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1755</v>
+        <v>2400</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44468</v>
+        <v>44496</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,20 +1725,20 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K19" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L19" t="n">
         <v>2000</v>
       </c>
       <c r="M19" t="n">
-        <v>1920</v>
+        <v>1773</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1920</v>
+        <v>1773</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44875</v>
+        <v>44526</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K2" t="n">
         <v>1500</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44511</v>
+        <v>44489</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -576,13 +576,13 @@
         <v>600</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L3" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M3" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44860</v>
+        <v>44477</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L4" t="n">
         <v>1500</v>
       </c>
-      <c r="L4" t="n">
-        <v>1700</v>
-      </c>
       <c r="M4" t="n">
-        <v>1609</v>
+        <v>1460</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1609</v>
+        <v>1460</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44524</v>
+        <v>44868</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K5" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L5" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M5" t="n">
-        <v>1550</v>
+        <v>1250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1550</v>
+        <v>1250</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44519</v>
+        <v>44868</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="M6" t="n">
-        <v>1240</v>
+        <v>1000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1240</v>
+        <v>1000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44477</v>
+        <v>44468</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -864,13 +864,13 @@
         <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>1460</v>
+        <v>1920</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1460</v>
+        <v>1920</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44881</v>
+        <v>44875</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="L9" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="M9" t="n">
-        <v>2650</v>
+        <v>1550</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2650</v>
+        <v>1550</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44881</v>
+        <v>44519</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K10" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="L10" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="M10" t="n">
-        <v>2400</v>
+        <v>1240</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2400</v>
+        <v>1240</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44876</v>
+        <v>44510</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="K11" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L11" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M11" t="n">
-        <v>1557</v>
+        <v>1350</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1557</v>
+        <v>1350</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44839</v>
+        <v>44860</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L12" t="n">
         <v>1700</v>
       </c>
-      <c r="L12" t="n">
-        <v>1800</v>
-      </c>
       <c r="M12" t="n">
-        <v>1760</v>
+        <v>1609</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1760</v>
+        <v>1609</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44489</v>
+        <v>44876</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="K13" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L13" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M13" t="n">
-        <v>1450</v>
+        <v>1557</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1450</v>
+        <v>1557</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44526</v>
+        <v>44511</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K14" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L14" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M14" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44868</v>
+        <v>44524</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L15" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M15" t="n">
-        <v>1250</v>
+        <v>1550</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1250</v>
+        <v>1550</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44868</v>
+        <v>44881</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
         <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>1000</v>
+        <v>2600</v>
       </c>
       <c r="L16" t="n">
-        <v>1000</v>
+        <v>2700</v>
       </c>
       <c r="M16" t="n">
-        <v>1000</v>
+        <v>2650</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1000</v>
+        <v>2650</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44510</v>
+        <v>44881</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="L17" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="M17" t="n">
-        <v>1350</v>
+        <v>2400</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1350</v>
+        <v>2400</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44468</v>
+        <v>44839</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1728,13 +1728,13 @@
         <v>500</v>
       </c>
       <c r="K19" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L19" t="n">
         <v>1800</v>
       </c>
-      <c r="L19" t="n">
-        <v>2000</v>
-      </c>
       <c r="M19" t="n">
-        <v>1920</v>
+        <v>1760</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1920</v>
+        <v>1760</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44526</v>
+        <v>44477</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L2" t="n">
         <v>1500</v>
       </c>
-      <c r="L2" t="n">
-        <v>1600</v>
-      </c>
       <c r="M2" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44489</v>
+        <v>44860</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K3" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M3" t="n">
-        <v>1450</v>
+        <v>1609</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1450</v>
+        <v>1609</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44477</v>
+        <v>44875</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M4" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44868</v>
+        <v>44519</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="K5" t="n">
         <v>1200</v>
@@ -726,7 +726,7 @@
         <v>1300</v>
       </c>
       <c r="M5" t="n">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44868</v>
+        <v>44511</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L6" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="M6" t="n">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44468</v>
+        <v>44876</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K7" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M7" t="n">
-        <v>1920</v>
+        <v>1557</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1920</v>
+        <v>1557</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44875</v>
+        <v>44510</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K9" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L9" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M9" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44519</v>
+        <v>44489</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K10" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L10" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>1240</v>
+        <v>1450</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1240</v>
+        <v>1450</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44510</v>
+        <v>44839</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="L11" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="M11" t="n">
-        <v>1350</v>
+        <v>1760</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1350</v>
+        <v>1760</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44860</v>
+        <v>44526</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
         <v>1500</v>
       </c>
       <c r="L12" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="M12" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44876</v>
+        <v>44468</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L13" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M13" t="n">
-        <v>1557</v>
+        <v>1920</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1557</v>
+        <v>1920</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44511</v>
+        <v>44524</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L14" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M14" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44524</v>
+        <v>44868</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K15" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L15" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M15" t="n">
-        <v>1550</v>
+        <v>1250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1550</v>
+        <v>1250</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44881</v>
+        <v>44868</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
         <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="L16" t="n">
-        <v>2700</v>
+        <v>1000</v>
       </c>
       <c r="M16" t="n">
-        <v>2650</v>
+        <v>1000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2650</v>
+        <v>1000</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44881</v>
+        <v>44545</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K17" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="L17" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="M17" t="n">
-        <v>2400</v>
+        <v>1755</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>2400</v>
+        <v>1755</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44545</v>
+        <v>44881</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="L18" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="M18" t="n">
-        <v>1755</v>
+        <v>2650</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1755</v>
+        <v>2650</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44839</v>
+        <v>44881</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="L19" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M19" t="n">
-        <v>1760</v>
+        <v>2400</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1760</v>
+        <v>2400</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44477</v>
+        <v>44881</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
-        <v>1400</v>
+        <v>2600</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="M2" t="n">
-        <v>1460</v>
+        <v>2650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1460</v>
+        <v>2650</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44860</v>
+        <v>44881</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="L3" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="M3" t="n">
-        <v>1609</v>
+        <v>2400</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1609</v>
+        <v>2400</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44875</v>
+        <v>44510</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L4" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M4" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44519</v>
+        <v>44839</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="L5" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="M5" t="n">
-        <v>1240</v>
+        <v>1760</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1240</v>
+        <v>1760</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44511</v>
+        <v>44545</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K6" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="L6" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="M6" t="n">
-        <v>1350</v>
+        <v>1755</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1350</v>
+        <v>1755</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44876</v>
+        <v>44526</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
         <v>1500</v>
@@ -870,7 +870,7 @@
         <v>1600</v>
       </c>
       <c r="M7" t="n">
-        <v>1557</v>
+        <v>1550</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1557</v>
+        <v>1550</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44496</v>
+        <v>44489</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L8" t="n">
         <v>1500</v>
       </c>
-      <c r="L8" t="n">
-        <v>2000</v>
-      </c>
       <c r="M8" t="n">
-        <v>1773</v>
+        <v>1450</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1773</v>
+        <v>1450</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44510</v>
+        <v>44477</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L9" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M9" t="n">
-        <v>1350</v>
+        <v>1460</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1350</v>
+        <v>1460</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44489</v>
+        <v>44876</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="K10" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M10" t="n">
-        <v>1450</v>
+        <v>1557</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1450</v>
+        <v>1557</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44839</v>
+        <v>44519</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K11" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="L11" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="M11" t="n">
-        <v>1760</v>
+        <v>1240</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1760</v>
+        <v>1240</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44526</v>
+        <v>44524</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
         <v>1500</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44468</v>
+        <v>44868</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K13" t="n">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="L13" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M13" t="n">
-        <v>1920</v>
+        <v>1250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1920</v>
+        <v>1250</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44524</v>
+        <v>44868</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
         <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="M14" t="n">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1550</v>
+        <v>1000</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44868</v>
+        <v>44496</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,29 +1437,29 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="K15" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L15" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="M15" t="n">
-        <v>1250</v>
+        <v>1773</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1250</v>
+        <v>1773</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44868</v>
+        <v>44860</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="K16" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L16" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="M16" t="n">
-        <v>1000</v>
+        <v>1609</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1000</v>
+        <v>1609</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44545</v>
+        <v>44875</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K17" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L17" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M17" t="n">
-        <v>1755</v>
+        <v>1550</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1755</v>
+        <v>1550</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44881</v>
+        <v>44511</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K18" t="n">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="L18" t="n">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="M18" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44881</v>
+        <v>44468</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,25 +1716,25 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="L19" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="M19" t="n">
-        <v>2400</v>
+        <v>1920</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2400</v>
+        <v>1920</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44881</v>
+        <v>44468</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="L2" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>2650</v>
+        <v>1920</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>2650</v>
+        <v>1920</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44881</v>
+        <v>44876</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K3" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="M3" t="n">
-        <v>2400</v>
+        <v>1557</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2400</v>
+        <v>1557</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44510</v>
+        <v>44868</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L4" t="n">
         <v>1300</v>
       </c>
-      <c r="L4" t="n">
-        <v>1400</v>
-      </c>
       <c r="M4" t="n">
-        <v>1350</v>
+        <v>1250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1350</v>
+        <v>1250</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44839</v>
+        <v>44868</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="M5" t="n">
-        <v>1760</v>
+        <v>1000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1760</v>
+        <v>1000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44545</v>
+        <v>44519</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K6" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="L6" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="M6" t="n">
-        <v>1755</v>
+        <v>1240</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1755</v>
+        <v>1240</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44526</v>
+        <v>44496</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K7" t="n">
         <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>1550</v>
+        <v>1773</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1550</v>
+        <v>1773</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44489</v>
+        <v>44875</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K8" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M8" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44477</v>
+        <v>44839</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1008,13 +1008,13 @@
         <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L9" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M9" t="n">
-        <v>1460</v>
+        <v>1760</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1460</v>
+        <v>1760</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44876</v>
+        <v>44881</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="L10" t="n">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="M10" t="n">
-        <v>1557</v>
+        <v>2650</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1557</v>
+        <v>2650</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44519</v>
+        <v>44881</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="L11" t="n">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="M11" t="n">
-        <v>1240</v>
+        <v>2400</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1240</v>
+        <v>2400</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44524</v>
+        <v>44477</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L12" t="n">
         <v>1500</v>
       </c>
-      <c r="L12" t="n">
-        <v>1600</v>
-      </c>
       <c r="M12" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44868</v>
+        <v>44545</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="K13" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="L13" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="M13" t="n">
-        <v>1250</v>
+        <v>1755</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1250</v>
+        <v>1755</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44868</v>
+        <v>44510</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L14" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="M14" t="n">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44496</v>
+        <v>44511</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K15" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L15" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M15" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44860</v>
+        <v>44489</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K16" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L16" t="n">
         <v>1500</v>
       </c>
-      <c r="L16" t="n">
-        <v>1700</v>
-      </c>
       <c r="M16" t="n">
-        <v>1609</v>
+        <v>1450</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1609</v>
+        <v>1450</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44875</v>
+        <v>44860</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K17" t="n">
         <v>1500</v>
       </c>
       <c r="L17" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M17" t="n">
-        <v>1550</v>
+        <v>1609</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1550</v>
+        <v>1609</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44511</v>
+        <v>44526</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L18" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M18" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44468</v>
+        <v>44524</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K19" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L19" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M19" t="n">
-        <v>1920</v>
+        <v>1550</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1920</v>
+        <v>1550</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44468</v>
+        <v>44881</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M2" t="n">
-        <v>1920</v>
+        <v>2650</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1920</v>
+        <v>2650</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44876</v>
+        <v>44881</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -569,20 +569,20 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="L3" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="M3" t="n">
-        <v>1557</v>
+        <v>2400</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1557</v>
+        <v>2400</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44868</v>
+        <v>44510</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="L4" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M4" t="n">
-        <v>1250</v>
+        <v>1350</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1250</v>
+        <v>1350</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44868</v>
+        <v>44839</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="L5" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="M5" t="n">
-        <v>1000</v>
+        <v>1760</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1000</v>
+        <v>1760</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44519</v>
+        <v>44545</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K6" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="L6" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="M6" t="n">
-        <v>1240</v>
+        <v>1755</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1240</v>
+        <v>1755</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44496</v>
+        <v>44526</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
         <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M7" t="n">
-        <v>1773</v>
+        <v>1550</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1773</v>
+        <v>1550</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44875</v>
+        <v>44489</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L8" t="n">
         <v>1500</v>
       </c>
-      <c r="L8" t="n">
-        <v>1600</v>
-      </c>
       <c r="M8" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44839</v>
+        <v>44477</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1008,13 +1008,13 @@
         <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="L9" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="M9" t="n">
-        <v>1760</v>
+        <v>1460</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1760</v>
+        <v>1460</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44881</v>
+        <v>44876</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K10" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="M10" t="n">
-        <v>2650</v>
+        <v>1557</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2650</v>
+        <v>1557</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44881</v>
+        <v>44519</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K11" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="L11" t="n">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="M11" t="n">
-        <v>2400</v>
+        <v>1240</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2400</v>
+        <v>1240</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44477</v>
+        <v>44524</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L12" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M12" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44545</v>
+        <v>44868</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="K13" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="L13" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="M13" t="n">
-        <v>1755</v>
+        <v>1250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1755</v>
+        <v>1250</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44510</v>
+        <v>44868</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="M14" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44511</v>
+        <v>44496</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K15" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L15" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M15" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44489</v>
+        <v>44860</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K16" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L16" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M16" t="n">
-        <v>1450</v>
+        <v>1609</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1450</v>
+        <v>1609</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44860</v>
+        <v>44875</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K17" t="n">
         <v>1500</v>
       </c>
       <c r="L17" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="M17" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44526</v>
+        <v>44511</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K18" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L18" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M18" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44524</v>
+        <v>44468</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L19" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M19" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44468</v>
+        <v>44511</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K2" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="L2" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M2" t="n">
-        <v>1920</v>
+        <v>1350</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1920</v>
+        <v>1350</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44876</v>
+        <v>44860</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="K3" t="n">
         <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M3" t="n">
-        <v>1557</v>
+        <v>1609</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1557</v>
+        <v>1609</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44868</v>
+        <v>44881</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K4" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="L4" t="n">
-        <v>1300</v>
+        <v>2700</v>
       </c>
       <c r="M4" t="n">
-        <v>1250</v>
+        <v>2650</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1250</v>
+        <v>2650</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44868</v>
+        <v>44881</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="L5" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="M5" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44519</v>
+        <v>44489</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K6" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L6" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M6" t="n">
-        <v>1240</v>
+        <v>1450</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1240</v>
+        <v>1450</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44496</v>
+        <v>44477</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L7" t="n">
         <v>1500</v>
       </c>
-      <c r="L7" t="n">
-        <v>2000</v>
-      </c>
       <c r="M7" t="n">
-        <v>1773</v>
+        <v>1460</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1773</v>
+        <v>1460</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44875</v>
+        <v>44839</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K8" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L8" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M8" t="n">
-        <v>1550</v>
+        <v>1760</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1550</v>
+        <v>1760</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44839</v>
+        <v>44876</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K9" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L9" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M9" t="n">
-        <v>1760</v>
+        <v>1557</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1760</v>
+        <v>1557</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44881</v>
+        <v>44510</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K10" t="n">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="L10" t="n">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="M10" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44881</v>
+        <v>44875</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K11" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="L11" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="M11" t="n">
-        <v>2400</v>
+        <v>1550</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2400</v>
+        <v>1550</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44477</v>
+        <v>44468</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1224,13 +1224,13 @@
         <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L12" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M12" t="n">
-        <v>1460</v>
+        <v>1920</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1460</v>
+        <v>1920</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44510</v>
+        <v>44496</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K14" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L14" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M14" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44511</v>
+        <v>44524</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L15" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M15" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44489</v>
+        <v>44868</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K16" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L16" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M16" t="n">
-        <v>1450</v>
+        <v>1250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1450</v>
+        <v>1250</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44860</v>
+        <v>44868</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L17" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="M17" t="n">
-        <v>1609</v>
+        <v>1000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1609</v>
+        <v>1000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44526</v>
+        <v>44519</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K18" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L18" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M18" t="n">
-        <v>1550</v>
+        <v>1240</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1550</v>
+        <v>1240</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44524</v>
+        <v>44526</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
         <v>1500</v>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P19" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44511</v>
+        <v>44468</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L2" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M2" t="n">
-        <v>1350</v>
+        <v>1920</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1350</v>
+        <v>1920</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44860</v>
+        <v>44876</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="K3" t="n">
         <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="M3" t="n">
-        <v>1609</v>
+        <v>1557</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1609</v>
+        <v>1557</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44881</v>
+        <v>44868</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K4" t="n">
-        <v>2600</v>
+        <v>1200</v>
       </c>
       <c r="L4" t="n">
-        <v>2700</v>
+        <v>1300</v>
       </c>
       <c r="M4" t="n">
-        <v>2650</v>
+        <v>1250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2650</v>
+        <v>1250</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44881</v>
+        <v>44868</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="M5" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44489</v>
+        <v>44519</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K6" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M6" t="n">
-        <v>1450</v>
+        <v>1240</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1450</v>
+        <v>1240</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44477</v>
+        <v>44496</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K7" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>1460</v>
+        <v>1773</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1460</v>
+        <v>1773</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44839</v>
+        <v>44875</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K8" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M8" t="n">
-        <v>1760</v>
+        <v>1550</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1760</v>
+        <v>1550</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44876</v>
+        <v>44839</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L9" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M9" t="n">
-        <v>1557</v>
+        <v>1760</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1557</v>
+        <v>1760</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44510</v>
+        <v>44881</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="L10" t="n">
-        <v>1400</v>
+        <v>2700</v>
       </c>
       <c r="M10" t="n">
-        <v>1350</v>
+        <v>2650</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1350</v>
+        <v>2650</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44875</v>
+        <v>44881</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="L11" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="M11" t="n">
-        <v>1550</v>
+        <v>2400</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1550</v>
+        <v>2400</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44468</v>
+        <v>44477</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1224,13 +1224,13 @@
         <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L12" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M12" t="n">
-        <v>1920</v>
+        <v>1460</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1920</v>
+        <v>1460</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44496</v>
+        <v>44510</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K14" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L14" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M14" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44524</v>
+        <v>44511</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K15" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L15" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M15" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44868</v>
+        <v>44489</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K16" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L16" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M16" t="n">
-        <v>1250</v>
+        <v>1450</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1250</v>
+        <v>1450</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44868</v>
+        <v>44860</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="K17" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L17" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="M17" t="n">
-        <v>1000</v>
+        <v>1609</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1000</v>
+        <v>1609</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L18" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M18" t="n">
-        <v>1240</v>
+        <v>1550</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1240</v>
+        <v>1550</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44526</v>
+        <v>44524</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K19" t="n">
         <v>1500</v>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P19" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44511</v>
+        <v>44875</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M2" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44860</v>
+        <v>44477</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K3" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L3" t="n">
         <v>1500</v>
       </c>
-      <c r="L3" t="n">
-        <v>1700</v>
-      </c>
       <c r="M3" t="n">
-        <v>1609</v>
+        <v>1460</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1609</v>
+        <v>1460</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44881</v>
+        <v>44496</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="K4" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>2650</v>
+        <v>1773</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2650</v>
+        <v>1773</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44881</v>
+        <v>44839</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="L5" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="M5" t="n">
-        <v>2400</v>
+        <v>1760</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2400</v>
+        <v>1760</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44477</v>
+        <v>44876</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K7" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M7" t="n">
-        <v>1460</v>
+        <v>1557</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1460</v>
+        <v>1557</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44839</v>
+        <v>44868</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K8" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="L8" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="M8" t="n">
-        <v>1760</v>
+        <v>1250</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1760</v>
+        <v>1250</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44876</v>
+        <v>44868</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="M9" t="n">
-        <v>1557</v>
+        <v>1000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1557</v>
+        <v>1000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44510</v>
+        <v>44881</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>1300</v>
+        <v>2600</v>
       </c>
       <c r="L10" t="n">
-        <v>1400</v>
+        <v>2700</v>
       </c>
       <c r="M10" t="n">
-        <v>1350</v>
+        <v>2650</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1350</v>
+        <v>2650</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44875</v>
+        <v>44881</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="L11" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="M11" t="n">
-        <v>1550</v>
+        <v>2400</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1550</v>
+        <v>2400</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44468</v>
+        <v>44545</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K12" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L12" t="n">
         <v>1800</v>
       </c>
-      <c r="L12" t="n">
-        <v>2000</v>
-      </c>
       <c r="M12" t="n">
-        <v>1920</v>
+        <v>1755</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1920</v>
+        <v>1755</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44545</v>
+        <v>44511</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K13" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="L13" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="M13" t="n">
-        <v>1755</v>
+        <v>1350</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1755</v>
+        <v>1350</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44496</v>
+        <v>44510</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K14" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L14" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M14" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44524</v>
+        <v>44526</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
         <v>1500</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P15" t="n">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44868</v>
+        <v>44860</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K16" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L16" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="M16" t="n">
-        <v>1250</v>
+        <v>1609</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1250</v>
+        <v>1609</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44868</v>
+        <v>44519</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K17" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L17" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M17" t="n">
-        <v>1000</v>
+        <v>1240</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1000</v>
+        <v>1240</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44519</v>
+        <v>44524</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L18" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M18" t="n">
-        <v>1240</v>
+        <v>1550</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1240</v>
+        <v>1550</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44526</v>
+        <v>44468</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L19" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M19" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44875</v>
+        <v>44839</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L2" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M2" t="n">
-        <v>1550</v>
+        <v>1760</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1550</v>
+        <v>1760</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44477</v>
+        <v>44519</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K3" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M3" t="n">
-        <v>1460</v>
+        <v>1240</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1460</v>
+        <v>1240</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44496</v>
+        <v>44868</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,29 +645,29 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M4" t="n">
-        <v>1773</v>
+        <v>1250</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1773</v>
+        <v>1250</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44839</v>
+        <v>44868</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="M5" t="n">
-        <v>1760</v>
+        <v>1000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1760</v>
+        <v>1000</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44489</v>
+        <v>44545</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K6" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M6" t="n">
-        <v>1450</v>
+        <v>1755</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1450</v>
+        <v>1755</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44876</v>
+        <v>44881</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="L7" t="n">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="M7" t="n">
-        <v>1557</v>
+        <v>2650</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1557</v>
+        <v>2650</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44868</v>
+        <v>44881</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="L8" t="n">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="M8" t="n">
-        <v>1250</v>
+        <v>2400</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1250</v>
+        <v>2400</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44868</v>
+        <v>44860</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L9" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="M9" t="n">
-        <v>1000</v>
+        <v>1609</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1000</v>
+        <v>1609</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44881</v>
+        <v>44524</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1080,13 +1080,13 @@
         <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="M10" t="n">
-        <v>2650</v>
+        <v>1550</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2650</v>
+        <v>1550</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44881</v>
+        <v>44876</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="K11" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="L11" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="M11" t="n">
-        <v>2400</v>
+        <v>1557</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2400</v>
+        <v>1557</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44545</v>
+        <v>44477</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="L12" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="M12" t="n">
-        <v>1755</v>
+        <v>1460</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1755</v>
+        <v>1460</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44511</v>
+        <v>44875</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K13" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L13" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M13" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44510</v>
+        <v>44496</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K14" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L14" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M14" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44526</v>
+        <v>44510</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K15" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L15" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M15" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44860</v>
+        <v>44489</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K16" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L16" t="n">
         <v>1500</v>
       </c>
-      <c r="L16" t="n">
-        <v>1700</v>
-      </c>
       <c r="M16" t="n">
-        <v>1609</v>
+        <v>1450</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1609</v>
+        <v>1450</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44519</v>
+        <v>44468</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="L17" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="M17" t="n">
-        <v>1240</v>
+        <v>1920</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1240</v>
+        <v>1920</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44524</v>
+        <v>44526</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K18" t="n">
         <v>1500</v>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44468</v>
+        <v>44511</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K19" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="L19" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M19" t="n">
-        <v>1920</v>
+        <v>1350</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1920</v>
+        <v>1350</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44489</v>
+        <v>45202</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K16" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L16" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M16" t="n">
-        <v>1450</v>
+        <v>1600</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1450</v>
+        <v>1600</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44468</v>
+        <v>44489</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K17" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L17" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M17" t="n">
-        <v>1920</v>
+        <v>1450</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1920</v>
+        <v>1450</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44526</v>
+        <v>44468</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L18" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M18" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44511</v>
+        <v>44526</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L19" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M19" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,12 +1747,84 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>11</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>600</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1400</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1350</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44496</v>
+        <v>45203</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,20 +1365,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K14" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L14" t="n">
         <v>1500</v>
       </c>
-      <c r="L14" t="n">
-        <v>2000</v>
-      </c>
       <c r="M14" t="n">
-        <v>1773</v>
+        <v>1450</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1773</v>
+        <v>1450</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44510</v>
+        <v>44496</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K15" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L15" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M15" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45202</v>
+        <v>44510</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K16" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="L16" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M16" t="n">
-        <v>1600</v>
+        <v>1350</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1600</v>
+        <v>1350</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44489</v>
+        <v>45202</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K17" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="L17" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M17" t="n">
-        <v>1450</v>
+        <v>1600</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1450</v>
+        <v>1600</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44468</v>
+        <v>44489</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K18" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L18" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M18" t="n">
-        <v>1920</v>
+        <v>1450</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1920</v>
+        <v>1450</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44526</v>
+        <v>44468</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L19" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M19" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44511</v>
+        <v>44526</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L20" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M20" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,12 +1819,84 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>600</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1400</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1350</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44839</v>
+        <v>44875</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M2" t="n">
-        <v>1760</v>
+        <v>1550</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1760</v>
+        <v>1550</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44868</v>
+        <v>44511</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="L4" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M4" t="n">
-        <v>1250</v>
+        <v>1350</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1250</v>
+        <v>1350</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44868</v>
+        <v>44489</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -713,20 +713,20 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="L5" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1000</v>
+        <v>1450</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44545</v>
+        <v>44876</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="K6" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L6" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M6" t="n">
-        <v>1755</v>
+        <v>1557</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1755</v>
+        <v>1557</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44881</v>
+        <v>44510</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K7" t="n">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="L7" t="n">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="M7" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44881</v>
+        <v>45202</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,25 +924,25 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K8" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="L8" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="M8" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44524</v>
+        <v>44881</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1080,13 +1080,13 @@
         <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="L10" t="n">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="M10" t="n">
-        <v>1550</v>
+        <v>2650</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1550</v>
+        <v>2650</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44876</v>
+        <v>44881</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="L11" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="M11" t="n">
-        <v>1557</v>
+        <v>2400</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1557</v>
+        <v>2400</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44477</v>
+        <v>44545</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K12" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L12" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M12" t="n">
-        <v>1460</v>
+        <v>1755</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1460</v>
+        <v>1755</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44875</v>
+        <v>44496</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K13" t="n">
         <v>1500</v>
       </c>
       <c r="L13" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M13" t="n">
-        <v>1550</v>
+        <v>1773</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1550</v>
+        <v>1773</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45203</v>
+        <v>44524</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L14" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M14" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44496</v>
+        <v>44526</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,20 +1437,20 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
         <v>1500</v>
       </c>
       <c r="L15" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M15" t="n">
-        <v>1773</v>
+        <v>1550</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1773</v>
+        <v>1550</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44510</v>
+        <v>44839</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K16" t="n">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="L16" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="M16" t="n">
-        <v>1350</v>
+        <v>1760</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1350</v>
+        <v>1760</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45202</v>
+        <v>44477</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="L17" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="M17" t="n">
-        <v>1600</v>
+        <v>1460</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1600</v>
+        <v>1460</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44489</v>
+        <v>45203</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
         <v>1400</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44526</v>
+        <v>44868</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="K20" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L20" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M20" t="n">
-        <v>1550</v>
+        <v>1250</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1550</v>
+        <v>1250</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44511</v>
+        <v>44868</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K21" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="L21" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="M21" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44875</v>
+        <v>45203</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L2" t="n">
         <v>1500</v>
       </c>
-      <c r="L2" t="n">
-        <v>1600</v>
-      </c>
       <c r="M2" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44519</v>
+        <v>45202</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="L3" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M3" t="n">
-        <v>1240</v>
+        <v>1600</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1240</v>
+        <v>1600</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44511</v>
+        <v>44875</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M4" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44489</v>
+        <v>44526</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M5" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44876</v>
+        <v>44519</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K6" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L6" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M6" t="n">
-        <v>1557</v>
+        <v>1240</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1557</v>
+        <v>1240</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45202</v>
+        <v>44496</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K8" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="n">
-        <v>1600</v>
+        <v>1773</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1600</v>
+        <v>1773</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44860</v>
+        <v>44468</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K9" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L9" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="n">
-        <v>1609</v>
+        <v>1920</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1609</v>
+        <v>1920</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44881</v>
+        <v>44477</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>2600</v>
+        <v>1400</v>
       </c>
       <c r="L10" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>2650</v>
+        <v>1460</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2650</v>
+        <v>1460</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44881</v>
+        <v>44524</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1145,20 +1145,20 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="L11" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="M11" t="n">
-        <v>2400</v>
+        <v>1550</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2400</v>
+        <v>1550</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44545</v>
+        <v>44860</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>550</v>
+        <v>1100</v>
       </c>
       <c r="K12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L12" t="n">
         <v>1700</v>
       </c>
-      <c r="L12" t="n">
-        <v>1800</v>
-      </c>
       <c r="M12" t="n">
-        <v>1755</v>
+        <v>1609</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1755</v>
+        <v>1609</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44496</v>
+        <v>44839</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,20 +1293,20 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L13" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M13" t="n">
-        <v>1773</v>
+        <v>1760</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1773</v>
+        <v>1760</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44524</v>
+        <v>44489</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K14" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L14" t="n">
         <v>1500</v>
       </c>
-      <c r="L14" t="n">
-        <v>1600</v>
-      </c>
       <c r="M14" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44526</v>
+        <v>44868</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="K15" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L15" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M15" t="n">
-        <v>1550</v>
+        <v>1250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1550</v>
+        <v>1250</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44839</v>
+        <v>44868</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="L16" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="M16" t="n">
-        <v>1760</v>
+        <v>1000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1760</v>
+        <v>1000</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44477</v>
+        <v>44876</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K17" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L17" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M17" t="n">
-        <v>1460</v>
+        <v>1557</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1460</v>
+        <v>1557</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45203</v>
+        <v>44881</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
-        <v>1400</v>
+        <v>2600</v>
       </c>
       <c r="L18" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="M18" t="n">
-        <v>1450</v>
+        <v>2650</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1450</v>
+        <v>2650</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44468</v>
+        <v>44881</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1716,25 +1716,25 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K19" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="L19" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M19" t="n">
-        <v>1920</v>
+        <v>2400</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1920</v>
+        <v>2400</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44868</v>
+        <v>44545</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="K20" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="L20" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="M20" t="n">
-        <v>1250</v>
+        <v>1755</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1250</v>
+        <v>1755</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44868</v>
+        <v>44511</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K21" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L21" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="M21" t="n">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44510</v>
+        <v>45230</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K7" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M7" t="n">
-        <v>1350</v>
+        <v>1500</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1350</v>
+        <v>1500</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44496</v>
+        <v>44510</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K8" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L8" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M8" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44468</v>
+        <v>44496</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -996,7 +996,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,20 +1005,20 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K9" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L9" t="n">
         <v>2000</v>
       </c>
       <c r="M9" t="n">
-        <v>1920</v>
+        <v>1773</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1920</v>
+        <v>1773</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44477</v>
+        <v>44468</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1080,13 +1080,13 @@
         <v>500</v>
       </c>
       <c r="K10" t="n">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="L10" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M10" t="n">
-        <v>1460</v>
+        <v>1920</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1460</v>
+        <v>1920</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44524</v>
+        <v>44477</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L11" t="n">
         <v>1500</v>
       </c>
-      <c r="L11" t="n">
-        <v>1600</v>
-      </c>
       <c r="M11" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44860</v>
+        <v>44524</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
         <v>1500</v>
       </c>
       <c r="L12" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="M12" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44839</v>
+        <v>44860</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L13" t="n">
         <v>1700</v>
       </c>
-      <c r="L13" t="n">
-        <v>1800</v>
-      </c>
       <c r="M13" t="n">
-        <v>1760</v>
+        <v>1609</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1760</v>
+        <v>1609</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44489</v>
+        <v>44839</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L14" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M14" t="n">
-        <v>1450</v>
+        <v>1760</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1450</v>
+        <v>1760</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44868</v>
+        <v>44489</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K15" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L15" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M15" t="n">
-        <v>1250</v>
+        <v>1450</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1250</v>
+        <v>1450</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K16" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L16" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M16" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44876</v>
+        <v>44868</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K17" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L17" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="M17" t="n">
-        <v>1557</v>
+        <v>1000</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1557</v>
+        <v>1000</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44881</v>
+        <v>44876</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K18" t="n">
-        <v>2600</v>
+        <v>1500</v>
       </c>
       <c r="L18" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="M18" t="n">
-        <v>2650</v>
+        <v>1557</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2650</v>
+        <v>1557</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1721,20 +1721,20 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K19" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="L19" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M19" t="n">
-        <v>2400</v>
+        <v>2650</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2400</v>
+        <v>2650</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44545</v>
+        <v>44881</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="L20" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M20" t="n">
-        <v>1755</v>
+        <v>2400</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1755</v>
+        <v>2400</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,58 +1845,130 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
+        <v>44545</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>550</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1800</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1755</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>1755</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
         <v>44511</v>
       </c>
-      <c r="E21" t="n">
-        <v>8</v>
-      </c>
-      <c r="F21" t="n">
-        <v>300000000</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Espárragos</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="E22" t="n">
+        <v>8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J21" t="n">
+      <c r="J22" t="n">
         <v>600</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K22" t="n">
         <v>1300</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L22" t="n">
         <v>1400</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M22" t="n">
         <v>1350</v>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>$/kilo</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>Provincia de Linares</t>
         </is>
       </c>
-      <c r="P21" t="n">
+      <c r="P22" t="n">
         <v>1350</v>
       </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="inlineStr">
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45203</v>
+        <v>44875</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M2" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45202</v>
+        <v>44510</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="L3" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M3" t="n">
-        <v>1600</v>
+        <v>1350</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1600</v>
+        <v>1350</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44875</v>
+        <v>45203</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L4" t="n">
         <v>1500</v>
       </c>
-      <c r="L4" t="n">
-        <v>1600</v>
-      </c>
       <c r="M4" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44526</v>
+        <v>44468</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K5" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L5" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M5" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1550</v>
+        <v>1920</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44519</v>
+        <v>45202</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K6" t="n">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="L6" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M6" t="n">
-        <v>1240</v>
+        <v>1600</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1240</v>
+        <v>1600</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45230</v>
+        <v>44496</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K7" t="n">
         <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>1500</v>
+        <v>1773</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1500</v>
+        <v>1773</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44510</v>
+        <v>44489</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -936,13 +936,13 @@
         <v>600</v>
       </c>
       <c r="K8" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L8" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M8" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1350</v>
+        <v>1450</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44496</v>
+        <v>44524</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,29 +1005,29 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K9" t="n">
         <v>1500</v>
       </c>
       <c r="L9" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M9" t="n">
-        <v>1773</v>
+        <v>1550</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1773</v>
+        <v>1550</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44468</v>
+        <v>44839</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1080,13 +1080,13 @@
         <v>500</v>
       </c>
       <c r="K10" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L10" t="n">
         <v>1800</v>
       </c>
-      <c r="L10" t="n">
-        <v>2000</v>
-      </c>
       <c r="M10" t="n">
-        <v>1920</v>
+        <v>1760</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1920</v>
+        <v>1760</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44477</v>
+        <v>44545</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K11" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L11" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M11" t="n">
-        <v>1460</v>
+        <v>1755</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1460</v>
+        <v>1755</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44524</v>
+        <v>44881</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1224,13 +1224,13 @@
         <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="L12" t="n">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="M12" t="n">
-        <v>1550</v>
+        <v>2650</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1550</v>
+        <v>2650</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44860</v>
+        <v>44881</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="K13" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="L13" t="n">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="M13" t="n">
-        <v>1609</v>
+        <v>2400</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1609</v>
+        <v>2400</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44839</v>
+        <v>44868</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K14" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="L14" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="M14" t="n">
-        <v>1760</v>
+        <v>1250</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1760</v>
+        <v>1250</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44489</v>
+        <v>44868</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="L15" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="M15" t="n">
-        <v>1450</v>
+        <v>1000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1450</v>
+        <v>1000</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44868</v>
+        <v>44519</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="K16" t="n">
         <v>1200</v>
@@ -1518,7 +1518,7 @@
         <v>1300</v>
       </c>
       <c r="M16" t="n">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44868</v>
+        <v>44876</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1577,20 +1577,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K17" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L17" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="M17" t="n">
-        <v>1000</v>
+        <v>1557</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1000</v>
+        <v>1557</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44876</v>
+        <v>45230</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
         <v>1500</v>
       </c>
       <c r="L18" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="M18" t="n">
-        <v>1557</v>
+        <v>1500</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1557</v>
+        <v>1500</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44881</v>
+        <v>44511</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K19" t="n">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="L19" t="n">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="M19" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2650</v>
+        <v>1350</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44881</v>
+        <v>44526</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1793,20 +1793,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J20" t="n">
         <v>100</v>
       </c>
       <c r="K20" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="L20" t="n">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="M20" t="n">
-        <v>2400</v>
+        <v>1550</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>2400</v>
+        <v>1550</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44545</v>
+        <v>44860</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>550</v>
+        <v>1100</v>
       </c>
       <c r="K21" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L21" t="n">
         <v>1700</v>
       </c>
-      <c r="L21" t="n">
-        <v>1800</v>
-      </c>
       <c r="M21" t="n">
-        <v>1755</v>
+        <v>1609</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1755</v>
+        <v>1609</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44511</v>
+        <v>44477</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K22" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="L22" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M22" t="n">
-        <v>1350</v>
+        <v>1460</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1350</v>
+        <v>1460</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44510</v>
+        <v>45245</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L3" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>1350</v>
+        <v>1900</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1350</v>
+        <v>1900</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45203</v>
+        <v>44510</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L4" t="n">
         <v>1400</v>
       </c>
-      <c r="L4" t="n">
-        <v>1500</v>
-      </c>
       <c r="M4" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44468</v>
+        <v>45203</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L5" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1920</v>
+        <v>1450</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1920</v>
+        <v>1450</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45202</v>
+        <v>44468</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="L6" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>1600</v>
+        <v>1920</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1600</v>
+        <v>1920</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44496</v>
+        <v>45202</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,20 +861,20 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M7" t="n">
-        <v>1773</v>
+        <v>1600</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1773</v>
+        <v>1600</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,20 +933,20 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K8" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="n">
-        <v>1450</v>
+        <v>1773</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1450</v>
+        <v>1773</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44524</v>
+        <v>44489</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K9" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L9" t="n">
         <v>1500</v>
       </c>
-      <c r="L9" t="n">
-        <v>1600</v>
-      </c>
       <c r="M9" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44839</v>
+        <v>44524</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M10" t="n">
-        <v>1760</v>
+        <v>1550</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1760</v>
+        <v>1550</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44545</v>
+        <v>44839</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K11" t="n">
         <v>1700</v>
@@ -1158,7 +1158,7 @@
         <v>1800</v>
       </c>
       <c r="M11" t="n">
-        <v>1755</v>
+        <v>1760</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1755</v>
+        <v>1760</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44881</v>
+        <v>44545</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="K12" t="n">
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="L12" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M12" t="n">
-        <v>2650</v>
+        <v>1755</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2650</v>
+        <v>1755</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1289,20 +1289,20 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K13" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="L13" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M13" t="n">
-        <v>2400</v>
+        <v>2650</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2400</v>
+        <v>2650</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44868</v>
+        <v>44881</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="L14" t="n">
-        <v>1300</v>
+        <v>2400</v>
       </c>
       <c r="M14" t="n">
-        <v>1250</v>
+        <v>2400</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1250</v>
+        <v>2400</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1433,20 +1433,20 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="L15" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="M15" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44519</v>
+        <v>44868</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="L16" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="M16" t="n">
-        <v>1240</v>
+        <v>1000</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1240</v>
+        <v>1000</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44876</v>
+        <v>44519</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K17" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L17" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M17" t="n">
-        <v>1557</v>
+        <v>1240</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1557</v>
+        <v>1240</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45230</v>
+        <v>44876</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K18" t="n">
         <v>1500</v>
       </c>
       <c r="L18" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M18" t="n">
-        <v>1500</v>
+        <v>1557</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1500</v>
+        <v>1557</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44511</v>
+        <v>45230</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L19" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M19" t="n">
-        <v>1350</v>
+        <v>1500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1350</v>
+        <v>1500</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44526</v>
+        <v>44511</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K20" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L20" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M20" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44860</v>
+        <v>44526</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
         <v>1500</v>
       </c>
       <c r="L21" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="M21" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,58 +1917,130 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
+        <v>44860</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1700</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1609</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>1609</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
         <v>44477</v>
       </c>
-      <c r="E22" t="n">
-        <v>8</v>
-      </c>
-      <c r="F22" t="n">
-        <v>300000000</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Espárragos</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="E23" t="n">
+        <v>8</v>
+      </c>
+      <c r="F23" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J22" t="n">
+      <c r="J23" t="n">
         <v>500</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K23" t="n">
         <v>1400</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L23" t="n">
         <v>1500</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M23" t="n">
         <v>1460</v>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>$/kilo</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>Provincia de Linares</t>
         </is>
       </c>
-      <c r="P22" t="n">
+      <c r="P23" t="n">
         <v>1460</v>
       </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" t="inlineStr">
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44489</v>
+        <v>45246</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="L9" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="M9" t="n">
-        <v>1450</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1450</v>
+        <v>2000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44524</v>
+        <v>45246</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1073,20 +1073,20 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K10" t="n">
         <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44839</v>
+        <v>44489</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K11" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="L11" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="M11" t="n">
-        <v>1760</v>
+        <v>1450</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1760</v>
+        <v>1450</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44545</v>
+        <v>44524</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L12" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M12" t="n">
-        <v>1755</v>
+        <v>1550</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1755</v>
+        <v>1550</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44881</v>
+        <v>44839</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="L13" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M13" t="n">
-        <v>2650</v>
+        <v>1760</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>2650</v>
+        <v>1760</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44881</v>
+        <v>44545</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K14" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="L14" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="M14" t="n">
-        <v>2400</v>
+        <v>1755</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>2400</v>
+        <v>1755</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44868</v>
+        <v>44881</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="L15" t="n">
-        <v>1300</v>
+        <v>2700</v>
       </c>
       <c r="M15" t="n">
-        <v>1250</v>
+        <v>2650</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1250</v>
+        <v>2650</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44868</v>
+        <v>44881</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="L16" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="M16" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1527,11 +1527,11 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44519</v>
+        <v>44868</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="K17" t="n">
         <v>1200</v>
@@ -1590,7 +1590,7 @@
         <v>1300</v>
       </c>
       <c r="M17" t="n">
-        <v>1240</v>
+        <v>1250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1240</v>
+        <v>1250</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44876</v>
+        <v>44868</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="L18" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="M18" t="n">
-        <v>1557</v>
+        <v>1000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1557</v>
+        <v>1000</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45230</v>
+        <v>44519</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K19" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L19" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M19" t="n">
-        <v>1500</v>
+        <v>1240</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1500</v>
+        <v>1240</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44511</v>
+        <v>44876</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="K20" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L20" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M20" t="n">
-        <v>1350</v>
+        <v>1557</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1350</v>
+        <v>1557</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44526</v>
+        <v>45230</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K21" t="n">
         <v>1500</v>
       </c>
       <c r="L21" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="M21" t="n">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44860</v>
+        <v>44511</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K22" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L22" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="M22" t="n">
-        <v>1609</v>
+        <v>1350</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1609</v>
+        <v>1350</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,58 +1989,202 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
+        <v>44526</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8</v>
+      </c>
+      <c r="F23" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1600</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1550</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>1550</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>44860</v>
+      </c>
+      <c r="E24" t="n">
+        <v>8</v>
+      </c>
+      <c r="F24" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>1100</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1700</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1609</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>1609</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
         <v>44477</v>
       </c>
-      <c r="E23" t="n">
-        <v>8</v>
-      </c>
-      <c r="F23" t="n">
-        <v>300000000</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Espárragos</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="E25" t="n">
+        <v>8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J23" t="n">
+      <c r="J25" t="n">
         <v>500</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K25" t="n">
         <v>1400</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L25" t="n">
         <v>1500</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M25" t="n">
         <v>1460</v>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>$/kilo</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
         <is>
           <t>Provincia de Linares</t>
         </is>
       </c>
-      <c r="P23" t="n">
+      <c r="P25" t="n">
         <v>1460</v>
       </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" t="inlineStr">
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44875</v>
+        <v>44477</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L2" t="n">
         <v>1500</v>
       </c>
-      <c r="L2" t="n">
-        <v>1600</v>
-      </c>
       <c r="M2" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45245</v>
+        <v>44860</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="K3" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L3" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M3" t="n">
-        <v>1900</v>
+        <v>1609</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1900</v>
+        <v>1609</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44510</v>
+        <v>44496</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="K4" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M4" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1350</v>
+        <v>1773</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45203</v>
+        <v>44868</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K5" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M5" t="n">
-        <v>1450</v>
+        <v>1250</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1450</v>
+        <v>1250</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44468</v>
+        <v>44868</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,25 +780,25 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K6" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M6" t="n">
-        <v>1920</v>
+        <v>1000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1920</v>
+        <v>1000</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45202</v>
+        <v>44881</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K7" t="n">
-        <v>1600</v>
+        <v>2600</v>
       </c>
       <c r="L7" t="n">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="M7" t="n">
-        <v>1600</v>
+        <v>2650</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1600</v>
+        <v>2650</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44496</v>
+        <v>44881</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -929,24 +929,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="L8" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M8" t="n">
-        <v>1773</v>
+        <v>2400</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1773</v>
+        <v>2400</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45246</v>
+        <v>45245</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1008,13 +1008,13 @@
         <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L9" t="n">
         <v>2000</v>
       </c>
       <c r="M9" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45246</v>
+        <v>44875</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -1083,10 +1083,10 @@
         <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M10" t="n">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44489</v>
+        <v>44519</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K11" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L11" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M11" t="n">
-        <v>1450</v>
+        <v>1240</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1450</v>
+        <v>1240</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44524</v>
+        <v>44489</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K12" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L12" t="n">
         <v>1500</v>
       </c>
-      <c r="L12" t="n">
-        <v>1600</v>
-      </c>
       <c r="M12" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44839</v>
+        <v>45203</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="L13" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="M13" t="n">
-        <v>1760</v>
+        <v>1450</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1760</v>
+        <v>1450</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44545</v>
+        <v>44468</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K14" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L14" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M14" t="n">
-        <v>1755</v>
+        <v>1920</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1755</v>
+        <v>1920</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44881</v>
+        <v>45246</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K15" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="L15" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="M15" t="n">
-        <v>2650</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2650</v>
+        <v>2000</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44881</v>
+        <v>45246</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K16" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="L16" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="M16" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44868</v>
+        <v>45230</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K17" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L17" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M17" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44868</v>
+        <v>44511</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K18" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="L18" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="M18" t="n">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44519</v>
+        <v>44545</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K19" t="n">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="L19" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="M19" t="n">
-        <v>1240</v>
+        <v>1755</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1240</v>
+        <v>1755</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44876</v>
+        <v>44839</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K20" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L20" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M20" t="n">
-        <v>1557</v>
+        <v>1760</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1557</v>
+        <v>1760</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45230</v>
+        <v>44526</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
         <v>1500</v>
       </c>
       <c r="L21" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M21" t="n">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1500</v>
+        <v>1550</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44511</v>
+        <v>45202</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K22" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="L22" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M22" t="n">
-        <v>1350</v>
+        <v>1600</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1350</v>
+        <v>1600</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44526</v>
+        <v>44510</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K23" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L23" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M23" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1550</v>
+        <v>1350</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44860</v>
+        <v>44876</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="K24" t="n">
         <v>1500</v>
       </c>
       <c r="L24" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="M24" t="n">
-        <v>1609</v>
+        <v>1557</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1609</v>
+        <v>1557</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44477</v>
+        <v>44524</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K25" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L25" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M25" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44477</v>
+        <v>44875</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M2" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44860</v>
+        <v>45245</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L3" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M3" t="n">
-        <v>1609</v>
+        <v>1900</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1609</v>
+        <v>1900</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44496</v>
+        <v>44510</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="M4" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1773</v>
+        <v>1350</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44868</v>
+        <v>45203</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L5" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M5" t="n">
-        <v>1250</v>
+        <v>1450</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1250</v>
+        <v>1450</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44868</v>
+        <v>44468</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -780,25 +780,25 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="L6" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M6" t="n">
-        <v>1000</v>
+        <v>1920</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1000</v>
+        <v>1920</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44881</v>
+        <v>45202</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -852,7 +852,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="L7" t="n">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="M7" t="n">
-        <v>2650</v>
+        <v>1600</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2650</v>
+        <v>1600</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44881</v>
+        <v>44496</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -929,24 +929,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K8" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="M8" t="n">
-        <v>2400</v>
+        <v>1773</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2400</v>
+        <v>1773</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45245</v>
+        <v>45246</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1008,13 +1008,13 @@
         <v>300</v>
       </c>
       <c r="K9" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L9" t="n">
         <v>2000</v>
       </c>
       <c r="M9" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44875</v>
+        <v>45246</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -1083,10 +1083,10 @@
         <v>1500</v>
       </c>
       <c r="L10" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44519</v>
+        <v>44489</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K11" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L11" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M11" t="n">
-        <v>1240</v>
+        <v>1450</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1240</v>
+        <v>1450</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44489</v>
+        <v>44524</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L12" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M12" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1450</v>
+        <v>1550</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45203</v>
+        <v>44839</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K13" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L13" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M13" t="n">
-        <v>1450</v>
+        <v>1760</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1450</v>
+        <v>1760</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44468</v>
+        <v>44545</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K14" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L14" t="n">
         <v>1800</v>
       </c>
-      <c r="L14" t="n">
-        <v>2000</v>
-      </c>
       <c r="M14" t="n">
-        <v>1920</v>
+        <v>1755</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1920</v>
+        <v>1755</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45246</v>
+        <v>44881</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K15" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L15" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M15" t="n">
-        <v>2000</v>
+        <v>2650</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2000</v>
+        <v>2650</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45246</v>
+        <v>44881</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1509,16 +1509,16 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K16" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="L16" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="M16" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45230</v>
+        <v>44868</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K17" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L17" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M17" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1599,11 +1599,11 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44511</v>
+        <v>44868</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1649,20 +1649,20 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="L18" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="M18" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1671,11 +1671,11 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44545</v>
+        <v>44519</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K19" t="n">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="L19" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="M19" t="n">
-        <v>1755</v>
+        <v>1240</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1755</v>
+        <v>1240</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44839</v>
+        <v>44876</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K20" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L20" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M20" t="n">
-        <v>1760</v>
+        <v>1557</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1760</v>
+        <v>1557</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44526</v>
+        <v>45230</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K21" t="n">
         <v>1500</v>
       </c>
       <c r="L21" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="M21" t="n">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45202</v>
+        <v>44511</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K22" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="L22" t="n">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="M22" t="n">
-        <v>1600</v>
+        <v>1350</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1600</v>
+        <v>1350</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44510</v>
+        <v>44526</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L23" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M23" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44876</v>
+        <v>44860</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="K24" t="n">
         <v>1500</v>
       </c>
       <c r="L24" t="n">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M24" t="n">
-        <v>1557</v>
+        <v>1609</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1557</v>
+        <v>1609</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44524</v>
+        <v>44477</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K25" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L25" t="n">
         <v>1500</v>
       </c>
-      <c r="L25" t="n">
-        <v>1600</v>
-      </c>
       <c r="M25" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2175,11 +2175,11 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44860</v>
+        <v>44510</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L3" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="M3" t="n">
-        <v>1609</v>
+        <v>1350</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1609</v>
+        <v>1350</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44496</v>
+        <v>45202</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,20 +645,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K4" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L4" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M4" t="n">
-        <v>1773</v>
+        <v>1600</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1773</v>
+        <v>1600</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44868</v>
+        <v>44524</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L5" t="n">
-        <v>1300</v>
+        <v>1600</v>
       </c>
       <c r="M5" t="n">
-        <v>1250</v>
+        <v>1550</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1250</v>
+        <v>1550</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44868</v>
+        <v>44839</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -785,20 +785,20 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="L6" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="M6" t="n">
-        <v>1000</v>
+        <v>1760</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1000</v>
+        <v>1760</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44881</v>
+        <v>45246</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K7" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="L7" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="M7" t="n">
-        <v>2650</v>
+        <v>2000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2650</v>
+        <v>2000</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44881</v>
+        <v>45246</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K8" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="L8" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="M8" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45245</v>
+        <v>45203</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="L9" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="M9" t="n">
-        <v>1900</v>
+        <v>1450</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1900</v>
+        <v>1450</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44875</v>
+        <v>44519</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K10" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L10" t="n">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="M10" t="n">
-        <v>1550</v>
+        <v>1240</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1550</v>
+        <v>1240</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44519</v>
+        <v>44881</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K11" t="n">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="L11" t="n">
-        <v>1300</v>
+        <v>2700</v>
       </c>
       <c r="M11" t="n">
-        <v>1240</v>
+        <v>2650</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1240</v>
+        <v>2650</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44489</v>
+        <v>44881</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1217,20 +1217,20 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K12" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="L12" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="M12" t="n">
-        <v>1450</v>
+        <v>2400</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1450</v>
+        <v>2400</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45203</v>
+        <v>44868</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K13" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="L13" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="M13" t="n">
-        <v>1450</v>
+        <v>1250</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1450</v>
+        <v>1250</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44468</v>
+        <v>44868</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K14" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="M14" t="n">
-        <v>1920</v>
+        <v>1000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1920</v>
+        <v>1000</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45246</v>
+        <v>44545</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K15" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="L15" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M15" t="n">
-        <v>2000</v>
+        <v>1755</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>2000</v>
+        <v>1755</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45246</v>
+        <v>44511</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K16" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="L16" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="M16" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1500</v>
+        <v>1350</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45230</v>
+        <v>44876</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K17" t="n">
         <v>1500</v>
       </c>
       <c r="L17" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M17" t="n">
-        <v>1500</v>
+        <v>1557</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1500</v>
+        <v>1557</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44511</v>
+        <v>44875</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K18" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L18" t="n">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="M18" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44545</v>
+        <v>45230</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K19" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L19" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="M19" t="n">
-        <v>1755</v>
+        <v>1500</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1755</v>
+        <v>1500</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44839</v>
+        <v>44860</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K20" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L20" t="n">
         <v>1700</v>
       </c>
-      <c r="L20" t="n">
-        <v>1800</v>
-      </c>
       <c r="M20" t="n">
-        <v>1760</v>
+        <v>1609</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1760</v>
+        <v>1609</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44526</v>
+        <v>45245</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K21" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L21" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M21" t="n">
-        <v>1550</v>
+        <v>1900</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1550</v>
+        <v>1900</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45202</v>
+        <v>44526</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1941,16 +1941,16 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="L22" t="n">
         <v>1600</v>
       </c>
       <c r="M22" t="n">
-        <v>1600</v>
+        <v>1550</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1600</v>
+        <v>1550</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44510</v>
+        <v>44468</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,16 +2013,16 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K23" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="L23" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="M23" t="n">
-        <v>1350</v>
+        <v>1920</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1350</v>
+        <v>1920</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44876</v>
+        <v>44489</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="K24" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L24" t="n">
         <v>1500</v>
       </c>
-      <c r="L24" t="n">
-        <v>1600</v>
-      </c>
       <c r="M24" t="n">
-        <v>1557</v>
+        <v>1450</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1557</v>
+        <v>1450</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44524</v>
+        <v>44496</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2157,29 +2157,29 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="K25" t="n">
         <v>1500</v>
       </c>
       <c r="L25" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M25" t="n">
-        <v>1550</v>
+        <v>1773</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1550</v>
+        <v>1773</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44477</v>
+        <v>44524</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K2" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M2" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1460</v>
+        <v>1550</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45202</v>
+        <v>45230</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -636,7 +636,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K4" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="L4" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="M4" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44524</v>
+        <v>45202</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K5" t="n">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L5" t="n">
         <v>1600</v>
       </c>
       <c r="M5" t="n">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1550</v>
+        <v>1600</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44839</v>
+        <v>44860</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L6" t="n">
         <v>1700</v>
       </c>
-      <c r="L6" t="n">
-        <v>1800</v>
-      </c>
       <c r="M6" t="n">
-        <v>1760</v>
+        <v>1609</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1760</v>
+        <v>1609</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45246</v>
+        <v>44876</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K7" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="L7" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M7" t="n">
-        <v>2000</v>
+        <v>1557</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2000</v>
+        <v>1557</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45246</v>
+        <v>44881</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -929,20 +929,20 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K8" t="n">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="M8" t="n">
-        <v>1500</v>
+        <v>2650</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1500</v>
+        <v>2650</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45203</v>
+        <v>44881</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -1001,20 +1001,20 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="L9" t="n">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="M9" t="n">
-        <v>1450</v>
+        <v>2400</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1450</v>
+        <v>2400</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44519</v>
+        <v>44489</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="K10" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L10" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="M10" t="n">
-        <v>1240</v>
+        <v>1450</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1240</v>
+        <v>1450</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44881</v>
+        <v>44868</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K11" t="n">
-        <v>2600</v>
+        <v>1200</v>
       </c>
       <c r="L11" t="n">
-        <v>2700</v>
+        <v>1300</v>
       </c>
       <c r="M11" t="n">
-        <v>2650</v>
+        <v>1250</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>2650</v>
+        <v>1250</v>
       </c>
       <c r="Q11" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44881</v>
+        <v>44868</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K12" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="L12" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="M12" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Linares</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="Q12" t="n">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44868</v>
+        <v>44510</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K13" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="L13" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="M13" t="n">
-        <v>1250</v>
+        <v>1350</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1250</v>
+        <v>1350</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44868</v>
+        <v>44875</v>
       </c>
       <c r="E14" t="n">
         <v>8</v>
@@ -1361,20 +1361,20 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="L14" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="M14" t="n">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Linares</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44545</v>
+        <v>45246</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
@@ -1437,16 +1437,16 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K15" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L15" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M15" t="n">
-        <v>1755</v>
+        <v>2000</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1755</v>
+        <v>2000</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44511</v>
+        <v>45246</v>
       </c>
       <c r="E16" t="n">
         <v>8</v>
@@ -1505,20 +1505,20 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K16" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="L16" t="n">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M16" t="n">
-        <v>1350</v>
+        <v>1500</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1350</v>
+        <v>1500</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44876</v>
+        <v>45245</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
@@ -1581,16 +1581,16 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K17" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="L17" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M17" t="n">
-        <v>1557</v>
+        <v>1900</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1557</v>
+        <v>1900</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44875</v>
+        <v>44477</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K18" t="n">
+        <v>1400</v>
+      </c>
+      <c r="L18" t="n">
         <v>1500</v>
       </c>
-      <c r="L18" t="n">
-        <v>1600</v>
-      </c>
       <c r="M18" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1550</v>
+        <v>1460</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45230</v>
+        <v>45203</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -1725,16 +1725,16 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K19" t="n">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="L19" t="n">
         <v>1500</v>
       </c>
       <c r="M19" t="n">
-        <v>1500</v>
+        <v>1450</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1500</v>
+        <v>1450</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44860</v>
+        <v>44526</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="K20" t="n">
         <v>1500</v>
       </c>
       <c r="L20" t="n">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="M20" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1609</v>
+        <v>1550</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45245</v>
+        <v>44545</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K21" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L21" t="n">
         <v>1800</v>
       </c>
-      <c r="L21" t="n">
-        <v>2000</v>
-      </c>
       <c r="M21" t="n">
-        <v>1900</v>
+        <v>1755</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1900</v>
+        <v>1755</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44526</v>
+        <v>44496</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1941,20 +1941,20 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K22" t="n">
         <v>1500</v>
       </c>
       <c r="L22" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M22" t="n">
-        <v>1550</v>
+        <v>1773</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1550</v>
+        <v>1773</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44489</v>
+        <v>44839</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K24" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="L24" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M24" t="n">
-        <v>1450</v>
+        <v>1760</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1450</v>
+        <v>1760</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44496</v>
+        <v>44519</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -2157,20 +2157,20 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K25" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="L25" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="M25" t="n">
-        <v>1773</v>
+        <v>1240</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2179,7 +2179,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>1773</v>
+        <v>1240</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Monumental Concepción - Espárragos.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44526</v>
+        <v>45275</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K20" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="L20" t="n">
-        <v>1600</v>
+        <v>2500</v>
       </c>
       <c r="M20" t="n">
-        <v>1550</v>
+        <v>2500</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1550</v>
+        <v>2500</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44545</v>
+        <v>44526</v>
       </c>
       <c r="E21" t="n">
         <v>8</v>
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="L21" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M21" t="n">
-        <v>1755</v>
+        <v>1550</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1755</v>
+        <v>1550</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44496</v>
+        <v>44545</v>
       </c>
       <c r="E22" t="n">
         <v>8</v>
@@ -1944,17 +1944,17 @@
         <v>550</v>
       </c>
       <c r="K22" t="n">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="L22" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M22" t="n">
-        <v>1773</v>
+        <v>1755</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>$/paquete</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1773</v>
+        <v>1755</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44468</v>
+        <v>44496</v>
       </c>
       <c r="E23" t="n">
         <v>8</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Verde</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2013,20 +2013,20 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K23" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="L23" t="n">
         <v>2000</v>
       </c>
       <c r="M23" t="n">
-        <v>1920</v>
+        <v>1773</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/paquete</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2035,7 +2035,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>1920</v>
+        <v>1773</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44839</v>
+        <v>44468</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2088,13 +2088,13 @@
         <v>500</v>
       </c>
       <c r="K24" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L24" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M24" t="n">
-        <v>1760</v>
+        <v>1920</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>1760</v>
+        <v>1920</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2133,58 +2133,130 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
+        <v>44839</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>500</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1800</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1760</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Provincia de Linares</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>1760</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>11</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
         <v>44519</v>
       </c>
-      <c r="E25" t="n">
-        <v>8</v>
-      </c>
-      <c r="F25" t="n">
-        <v>300000000</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Espárragos</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="E26" t="n">
+        <v>8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>300000000</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Espárragos</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J25" t="n">
+      <c r="J26" t="n">
         <v>250</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K26" t="n">
         <v>1200</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L26" t="n">
         <v>1300</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M26" t="n">
         <v>1240</v>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>$/kilo</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
         <is>
           <t>Provincia de Linares</t>
         </is>
       </c>
-      <c r="P25" t="n">
+      <c r="P26" t="n">
         <v>1240</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="inlineStr">
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>
